--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -525,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +537,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -606,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>556547.12030853529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>582515.92990993394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +654,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -720,6 +726,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +738,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -801,6 +810,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>543666.14031884272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>555010.76881737297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +855,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -915,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +939,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -996,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-12880.979989692569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-27505.161092560971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,11 +1035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254293888"/>
-        <c:axId val="254295424"/>
+        <c:axId val="69827968"/>
+        <c:axId val="69951488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254293888"/>
+        <c:axId val="69827968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,14 +1082,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254295424"/>
+        <c:crossAx val="69951488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254295424"/>
+        <c:axId val="69951488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254293888"/>
+        <c:crossAx val="69827968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,6 +1296,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1312,7 +1331,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1384,6 +1403,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,8 +1420,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="265323648"/>
-        <c:axId val="265267456"/>
+        <c:axId val="612166656"/>
+        <c:axId val="612165120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1424,7 +1446,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1496,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1530,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1577,6 +1602,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.7161979980468751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,11 +1621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256395904"/>
-        <c:axId val="265265536"/>
+        <c:axId val="573784448"/>
+        <c:axId val="573787520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256395904"/>
+        <c:axId val="573784448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,14 +1668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265265536"/>
+        <c:crossAx val="573787520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="265265536"/>
+        <c:axId val="573787520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1726,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256395904"/>
+        <c:crossAx val="573784448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265267456"/>
+        <c:axId val="612165120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,12 +1768,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265323648"/>
+        <c:crossAx val="612166656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="265323648"/>
+        <c:axId val="612166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265267456"/>
+        <c:crossAx val="612165120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2191,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3294,6 +3322,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C27" s="15">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E27" s="16">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F27" s="17">
+        <v>7181.7629853055796</v>
+      </c>
+      <c r="G27" s="17">
+        <v>153044.31712882558</v>
+      </c>
+      <c r="H27" s="17">
+        <v>553398.76019668323</v>
+      </c>
+      <c r="I27" s="17">
+        <v>582515.92990993394</v>
+      </c>
+      <c r="J27" s="17">
+        <v>555010.76881737297</v>
+      </c>
+      <c r="K27" s="17">
+        <v>-27505.161092560971</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -528,6 +524,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +539,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -612,6 +614,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>582515.92990993394</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>616108.03074959258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>645102.94959475833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,7 +662,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -729,6 +737,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +752,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -813,6 +827,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>555010.76881737297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>563296.52850202331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>618052.615835384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +875,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -930,6 +950,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +965,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1014,6 +1040,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-27505.161092560971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-52811.502247569268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27050.333759374334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,11 +1067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69827968"/>
-        <c:axId val="69951488"/>
+        <c:axId val="644284800"/>
+        <c:axId val="644287488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69827968"/>
+        <c:axId val="644284800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,14 +1114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69951488"/>
+        <c:crossAx val="644287488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69951488"/>
+        <c:axId val="644287488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1172,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69827968"/>
+        <c:crossAx val="644284800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1331,7 +1363,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1406,6 +1438,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,8 +1458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="612166656"/>
-        <c:axId val="612165120"/>
+        <c:axId val="644333952"/>
+        <c:axId val="644330624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1446,7 +1484,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1521,6 +1559,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,7 +1574,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1605,6 +1649,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.6159379882812499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4505849609374999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,11 +1671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573784448"/>
-        <c:axId val="573787520"/>
+        <c:axId val="644314624"/>
+        <c:axId val="644316544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573784448"/>
+        <c:axId val="644314624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,14 +1718,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573787520"/>
+        <c:crossAx val="644316544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573787520"/>
+        <c:axId val="644316544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,12 +1776,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573784448"/>
+        <c:crossAx val="644314624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="612165120"/>
+        <c:axId val="644330624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612166656"/>
+        <c:crossAx val="644333952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="612166656"/>
+        <c:axId val="644333952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="612165120"/>
+        <c:crossAx val="644330624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2241,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2274,7 +2324,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2326,13 +2376,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2344,10 +2394,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3357,6 +3407,82 @@
         <v>-27505.161092560971</v>
       </c>
       <c r="L27" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C28" s="15">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D28" s="16">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E28" s="16">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9735.1901836759698</v>
+      </c>
+      <c r="G28" s="17">
+        <v>162779.50731250155</v>
+      </c>
+      <c r="H28" s="17">
+        <v>561684.51988133357</v>
+      </c>
+      <c r="I28" s="17">
+        <v>616108.03074959258</v>
+      </c>
+      <c r="J28" s="17">
+        <v>563296.52850202331</v>
+      </c>
+      <c r="K28" s="17">
+        <v>-52811.502247569268</v>
+      </c>
+      <c r="L28" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C29" s="15">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E29" s="16">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F29" s="17">
+        <v>8034.4084527744462</v>
+      </c>
+      <c r="G29" s="17">
+        <v>170813.915765276</v>
+      </c>
+      <c r="H29" s="17">
+        <v>616440.60721469426</v>
+      </c>
+      <c r="I29" s="17">
+        <v>645102.94959475833</v>
+      </c>
+      <c r="J29" s="17">
+        <v>618052.615835384</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-27050.333759374334</v>
+      </c>
+      <c r="L29" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -530,6 +534,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,7 +546,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -620,6 +627,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>645102.94959475833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>672172.38558687002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,7 +672,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -743,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +765,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -833,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>618052.615835384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>645122.05182749568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,7 +891,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -956,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +984,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1045,6 +1064,9 @@
                   <c:v>-52811.502247569268</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>-27050.333759374334</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-27050.333759374334</c:v>
                 </c:pt>
               </c:numCache>
@@ -1067,11 +1089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="644284800"/>
-        <c:axId val="644287488"/>
+        <c:axId val="398047872"/>
+        <c:axId val="399996032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="644284800"/>
+        <c:axId val="398047872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,14 +1136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644287488"/>
+        <c:crossAx val="399996032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="644287488"/>
+        <c:axId val="399996032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644284800"/>
+        <c:crossAx val="398047872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1363,7 +1385,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1444,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,8 +1483,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="644333952"/>
-        <c:axId val="644330624"/>
+        <c:axId val="593835520"/>
+        <c:axId val="593833984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1484,7 +1509,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1565,6 +1590,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1602,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1654,6 +1682,9 @@
                   <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
@@ -1671,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="644314624"/>
-        <c:axId val="644316544"/>
+        <c:axId val="592777600"/>
+        <c:axId val="592779136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="644314624"/>
+        <c:axId val="592777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,14 +1749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644316544"/>
+        <c:crossAx val="592779136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="644316544"/>
+        <c:axId val="592779136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,12 +1807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644314624"/>
+        <c:crossAx val="592777600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644330624"/>
+        <c:axId val="593833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644333952"/>
+        <c:crossAx val="593835520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="644333952"/>
+        <c:axId val="593835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644330624"/>
+        <c:crossAx val="593833984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2241,7 +2272,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2324,7 +2355,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2376,13 +2407,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2394,10 +2425,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3483,6 +3514,44 @@
         <v>-27050.333759374334</v>
       </c>
       <c r="L29" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C30" s="15">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E30" s="16">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F30" s="17">
+        <v>7500.8627031601491</v>
+      </c>
+      <c r="G30" s="17">
+        <v>178314.77846843615</v>
+      </c>
+      <c r="H30" s="17">
+        <v>643510.04320680595</v>
+      </c>
+      <c r="I30" s="17">
+        <v>672172.38558687002</v>
+      </c>
+      <c r="J30" s="17">
+        <v>645122.05182749568</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-27050.333759374334</v>
+      </c>
+      <c r="L30" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -848,7 +848,7 @@
                   <c:v>618052.615835384</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>645122.05182749568</c:v>
+                  <c:v>648803.26686322526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1067,7 @@
                   <c:v>-27050.333759374334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-27050.333759374334</c:v>
+                  <c:v>-23369.118723644759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,11 +1089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398047872"/>
-        <c:axId val="399996032"/>
+        <c:axId val="549544704"/>
+        <c:axId val="549546240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398047872"/>
+        <c:axId val="549544704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,14 +1136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399996032"/>
+        <c:crossAx val="549546240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399996032"/>
+        <c:axId val="549546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398047872"/>
+        <c:crossAx val="549544704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,8 +1483,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="593835520"/>
-        <c:axId val="593833984"/>
+        <c:axId val="555352064"/>
+        <c:axId val="549820288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1685,7 +1685,7 @@
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592777600"/>
-        <c:axId val="592779136"/>
+        <c:axId val="549636352"/>
+        <c:axId val="549818368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592777600"/>
+        <c:axId val="549636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,14 +1749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592779136"/>
+        <c:crossAx val="549818368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592779136"/>
+        <c:axId val="549818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592777600"/>
+        <c:crossAx val="549636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593833984"/>
+        <c:axId val="549820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593835520"/>
+        <c:crossAx val="555352064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="593835520"/>
+        <c:axId val="555352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593833984"/>
+        <c:crossAx val="549820288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +3522,7 @@
         <v>45138</v>
       </c>
       <c r="B30" s="15">
-        <v>3.608843017578125</v>
+        <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
         <v>22.409999849999998</v>
@@ -3534,22 +3534,22 @@
         <v>27069.435992111685</v>
       </c>
       <c r="F30" s="17">
-        <v>7500.8627031601491</v>
+        <v>7456.3355029019631</v>
       </c>
       <c r="G30" s="17">
-        <v>178314.77846843615</v>
+        <v>178270.25126817796</v>
       </c>
       <c r="H30" s="17">
-        <v>643510.04320680595</v>
+        <v>647191.25824253552</v>
       </c>
       <c r="I30" s="17">
         <v>672172.38558687002</v>
       </c>
       <c r="J30" s="17">
-        <v>645122.05182749568</v>
+        <v>648803.26686322526</v>
       </c>
       <c r="K30" s="17">
-        <v>-27050.333759374334</v>
+        <v>-23369.118723644759</v>
       </c>
       <c r="L30" s="16">
         <v>1612.0086206897299</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -537,6 +537,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +549,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -630,6 +633,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>672172.38558687002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>703977.38461878558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,7 +678,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -756,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +774,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -849,6 +858,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>648803.26686322526</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>636512.23137454153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,7 +903,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -975,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +999,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1068,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-23369.118723644759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-67465.153244244051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,11 +1107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549544704"/>
-        <c:axId val="549546240"/>
+        <c:axId val="493311104"/>
+        <c:axId val="493319296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549544704"/>
+        <c:axId val="493311104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,14 +1154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549546240"/>
+        <c:crossAx val="493319296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549546240"/>
+        <c:axId val="493319296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549544704"/>
+        <c:crossAx val="493311104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1385,7 +1403,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1469,6 +1487,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,8 +1504,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555352064"/>
-        <c:axId val="549820288"/>
+        <c:axId val="494848256"/>
+        <c:axId val="494846336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1509,7 +1530,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1593,6 +1614,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,7 +1626,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1686,6 +1710,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6303940429687498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549636352"/>
-        <c:axId val="549818368"/>
+        <c:axId val="493341312"/>
+        <c:axId val="494836352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549636352"/>
+        <c:axId val="493341312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,14 +1776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549818368"/>
+        <c:crossAx val="494836352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549818368"/>
+        <c:axId val="494836352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549636352"/>
+        <c:crossAx val="493341312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549820288"/>
+        <c:axId val="494846336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1876,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555352064"/>
+        <c:crossAx val="494848256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555352064"/>
+        <c:axId val="494848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549820288"/>
+        <c:crossAx val="494846336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,7 +2299,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3555,6 +3582,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>45169</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3.3830390625</v>
+      </c>
+      <c r="C31" s="15">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E31" s="16">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F31" s="17">
+        <v>9401.3100186943539</v>
+      </c>
+      <c r="G31" s="17">
+        <v>187671.56128687231</v>
+      </c>
+      <c r="H31" s="17">
+        <v>634900.22275385179</v>
+      </c>
+      <c r="I31" s="17">
+        <v>703977.38461878558</v>
+      </c>
+      <c r="J31" s="17">
+        <v>636512.23137454153</v>
+      </c>
+      <c r="K31" s="17">
+        <v>-67465.153244244051</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -540,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +552,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -636,6 +639,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>703977.38461878558</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>741075.91602108208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +684,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -765,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +783,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -861,6 +870,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>636512.23137454153</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>645108.14440639422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +915,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -990,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1014,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1086,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-67465.153244244051</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-95967.771614687867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,11 +1125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493311104"/>
-        <c:axId val="493319296"/>
+        <c:axId val="453464064"/>
+        <c:axId val="453466752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493311104"/>
+        <c:axId val="453464064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,14 +1172,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493319296"/>
+        <c:crossAx val="453466752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493319296"/>
+        <c:axId val="453466752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493311104"/>
+        <c:crossAx val="453464064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,7 +1421,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1490,6 +1508,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,8 +1525,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494848256"/>
-        <c:axId val="494846336"/>
+        <c:axId val="453503232"/>
+        <c:axId val="453501696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1530,7 +1551,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1617,6 +1638,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,7 +1650,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1713,6 +1737,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.3830390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,11 +1756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493341312"/>
-        <c:axId val="494836352"/>
+        <c:axId val="453497600"/>
+        <c:axId val="453499520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493341312"/>
+        <c:axId val="453497600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,14 +1803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494836352"/>
+        <c:crossAx val="453499520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494836352"/>
+        <c:axId val="453499520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,12 +1861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493341312"/>
+        <c:crossAx val="453497600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494846336"/>
+        <c:axId val="453501696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1903,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494848256"/>
+        <c:crossAx val="453503232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494848256"/>
+        <c:axId val="453503232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494846336"/>
+        <c:crossAx val="453501696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2326,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3620,6 +3647,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>45197</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3.2311640625</v>
+      </c>
+      <c r="C32" s="15">
+        <v>19.25</v>
+      </c>
+      <c r="D32" s="16">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E32" s="16">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F32" s="17">
+        <v>11481.475618292439</v>
+      </c>
+      <c r="G32" s="17">
+        <v>199153.03690516474</v>
+      </c>
+      <c r="H32" s="17">
+        <v>643496.13578570448</v>
+      </c>
+      <c r="I32" s="17">
+        <v>741075.91602108208</v>
+      </c>
+      <c r="J32" s="17">
+        <v>645108.14440639422</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-95967.771614687867</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -543,6 +539,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +551,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -642,6 +641,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>741075.91602108208</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>779004.29652438569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +686,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -774,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +788,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -873,6 +878,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>645108.14440639422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>662932.42452916608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +923,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1005,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +1025,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1104,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-95967.771614687867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-116071.87199521961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,11 +1139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453464064"/>
-        <c:axId val="453466752"/>
+        <c:axId val="575015552"/>
+        <c:axId val="595173760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453464064"/>
+        <c:axId val="575015552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,14 +1186,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453466752"/>
+        <c:crossAx val="595173760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453466752"/>
+        <c:axId val="595173760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1244,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453464064"/>
+        <c:crossAx val="575015552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,7 +1435,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1511,6 +1525,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,8 +1542,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453503232"/>
-        <c:axId val="453501696"/>
+        <c:axId val="608572928"/>
+        <c:axId val="608566656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1551,7 +1568,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1641,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1670,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1740,6 +1760,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.2311640625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1302160644531249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,11 +1779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453497600"/>
-        <c:axId val="453499520"/>
+        <c:axId val="608563200"/>
+        <c:axId val="608564736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453497600"/>
+        <c:axId val="608563200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,14 +1826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453499520"/>
+        <c:crossAx val="608564736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453499520"/>
+        <c:axId val="608564736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,12 +1884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453497600"/>
+        <c:crossAx val="608563200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453501696"/>
+        <c:axId val="608566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1926,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453503232"/>
+        <c:crossAx val="608572928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453503232"/>
+        <c:axId val="608572928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453501696"/>
+        <c:crossAx val="608566656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2349,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2409,7 +2432,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2461,13 +2484,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2479,10 +2502,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3682,6 +3705,44 @@
         <v>-95967.771614687867</v>
       </c>
       <c r="L32" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>45230</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="C33" s="15">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E33" s="16">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F33" s="17">
+        <v>12116.857022753164</v>
+      </c>
+      <c r="G33" s="17">
+        <v>211269.8939279179</v>
+      </c>
+      <c r="H33" s="17">
+        <v>661320.41590847634</v>
+      </c>
+      <c r="I33" s="17">
+        <v>779004.29652438569</v>
+      </c>
+      <c r="J33" s="17">
+        <v>662932.42452916608</v>
+      </c>
+      <c r="K33" s="17">
+        <v>-116071.87199521961</v>
+      </c>
+      <c r="L33" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -542,6 +546,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +561,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -644,6 +654,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>779004.29652438569</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>818906.47496209387</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>858349.94796120108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +702,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -779,6 +795,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +810,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -881,6 +903,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>662932.42452916608</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>689130.78967867827</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>721432.50510384492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +951,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1016,6 +1044,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1059,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1118,6 +1152,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-116071.87199521961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-129775.6852834156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-136917.44285735616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,11 +1179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="575015552"/>
-        <c:axId val="595173760"/>
+        <c:axId val="615824000"/>
+        <c:axId val="658245120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="575015552"/>
+        <c:axId val="615824000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,14 +1226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595173760"/>
+        <c:crossAx val="658245120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595173760"/>
+        <c:axId val="658245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575015552"/>
+        <c:crossAx val="615824000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,7 +1475,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1528,6 +1568,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,8 +1588,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="608572928"/>
-        <c:axId val="608566656"/>
+        <c:axId val="658295424"/>
+        <c:axId val="658293888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1568,7 +1614,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1661,6 +1707,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,7 +1722,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1763,6 +1815,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.1302160644531249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0653520507812502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0335100097656249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,11 +1837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608563200"/>
-        <c:axId val="608564736"/>
+        <c:axId val="658290176"/>
+        <c:axId val="658291712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608563200"/>
+        <c:axId val="658290176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608564736"/>
+        <c:crossAx val="658291712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608564736"/>
+        <c:axId val="658291712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,12 +1942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608563200"/>
+        <c:crossAx val="658290176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608566656"/>
+        <c:axId val="658293888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,12 +1984,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608572928"/>
+        <c:crossAx val="658295424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="608572928"/>
+        <c:axId val="658295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608566656"/>
+        <c:crossAx val="658293888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2349,7 +2407,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2432,7 +2490,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2484,13 +2542,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2502,10 +2560,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3743,6 +3801,82 @@
         <v>-116071.87199521961</v>
       </c>
       <c r="L33" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>45260</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3.0653520507812502</v>
+      </c>
+      <c r="C34" s="15">
+        <v>17.93000031</v>
+      </c>
+      <c r="D34" s="16">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E34" s="16">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F34" s="17">
+        <v>13017.160109729817</v>
+      </c>
+      <c r="G34" s="17">
+        <v>224287.05403764773</v>
+      </c>
+      <c r="H34" s="17">
+        <v>687518.78105798853</v>
+      </c>
+      <c r="I34" s="17">
+        <v>818906.47496209387</v>
+      </c>
+      <c r="J34" s="17">
+        <v>689130.78967867827</v>
+      </c>
+      <c r="K34" s="17">
+        <v>-129775.6852834156</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3.0335100097656249</v>
+      </c>
+      <c r="C35" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D35" s="16">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E35" s="16">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F35" s="17">
+        <v>13002.585411661341</v>
+      </c>
+      <c r="G35" s="17">
+        <v>237289.63944930906</v>
+      </c>
+      <c r="H35" s="17">
+        <v>719820.49648315518</v>
+      </c>
+      <c r="I35" s="17">
+        <v>858349.94796120108</v>
+      </c>
+      <c r="J35" s="17">
+        <v>721432.50510384492</v>
+      </c>
+      <c r="K35" s="17">
+        <v>-136917.44285735616</v>
+      </c>
+      <c r="L35" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -552,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +564,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -660,6 +663,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>858349.94796120108</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>905578.61378933233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +708,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -801,6 +807,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +819,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -909,6 +918,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>721432.50510384492</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>673112.46553766658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +963,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1050,6 +1062,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1074,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1158,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-136917.44285735616</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-232466.14825166576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,11 +1197,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615824000"/>
-        <c:axId val="658245120"/>
+        <c:axId val="392557312"/>
+        <c:axId val="392691712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615824000"/>
+        <c:axId val="392557312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,14 +1244,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658245120"/>
+        <c:crossAx val="392691712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658245120"/>
+        <c:axId val="392691712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615824000"/>
+        <c:crossAx val="392557312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1475,7 +1493,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1574,6 +1592,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,8 +1609,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="658295424"/>
-        <c:axId val="658293888"/>
+        <c:axId val="568631296"/>
+        <c:axId val="568625024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1614,7 +1635,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1713,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,7 +1746,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1821,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0335100097656249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6308430175781252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658290176"/>
-        <c:axId val="658291712"/>
+        <c:axId val="568614912"/>
+        <c:axId val="568623488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658290176"/>
+        <c:axId val="568614912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,14 +1911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658291712"/>
+        <c:crossAx val="568623488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658291712"/>
+        <c:axId val="568623488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,12 +1969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658290176"/>
+        <c:crossAx val="568614912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658293888"/>
+        <c:axId val="568625024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,12 +2011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658295424"/>
+        <c:crossAx val="568631296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="658295424"/>
+        <c:axId val="568631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658293888"/>
+        <c:crossAx val="568625024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2407,7 +2434,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3880,6 +3907,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>45322</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="C36" s="15">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D36" s="16">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E36" s="16">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F36" s="17">
+        <v>17951.91332685771</v>
+      </c>
+      <c r="G36" s="17">
+        <v>255241.55277616676</v>
+      </c>
+      <c r="H36" s="17">
+        <v>671500.45691697684</v>
+      </c>
+      <c r="I36" s="17">
+        <v>905578.61378933233</v>
+      </c>
+      <c r="J36" s="17">
+        <v>673112.46553766658</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-232466.14825166576</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -555,6 +551,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,7 +563,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -666,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>905578.61378933233</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>943603.11211726349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +710,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -810,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +824,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -921,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>673112.46553766658</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>805929.10265798098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,7 +971,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1065,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1085,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1176,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-232466.14825166576</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-137674.0094592825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,11 +1211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392557312"/>
-        <c:axId val="392691712"/>
+        <c:axId val="425383040"/>
+        <c:axId val="425385344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392557312"/>
+        <c:axId val="425383040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,14 +1258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392691712"/>
+        <c:crossAx val="425385344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392691712"/>
+        <c:axId val="425385344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1316,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392557312"/>
+        <c:crossAx val="425383040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1493,7 +1507,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1595,6 +1609,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,8 +1626,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="568631296"/>
-        <c:axId val="568625024"/>
+        <c:axId val="425652608"/>
+        <c:axId val="425650816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1635,7 +1652,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1737,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,7 +1766,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1848,6 +1868,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.6308430175781252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0022250976562499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,11 +1887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568614912"/>
-        <c:axId val="568623488"/>
+        <c:axId val="425614336"/>
+        <c:axId val="425649280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568614912"/>
+        <c:axId val="425614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,14 +1934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568623488"/>
+        <c:crossAx val="425649280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568623488"/>
+        <c:axId val="425649280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,12 +1992,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568614912"/>
+        <c:crossAx val="425614336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568625024"/>
+        <c:axId val="425650816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2034,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568631296"/>
+        <c:crossAx val="425652608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="568631296"/>
+        <c:axId val="425652608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568625024"/>
+        <c:crossAx val="425650816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2457,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2517,7 +2540,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2569,13 +2592,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2587,10 +2610,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3942,6 +3965,44 @@
         <v>-232466.14825166576</v>
       </c>
       <c r="L36" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>45351</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3.0022250976562499</v>
+      </c>
+      <c r="C37" s="15">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D37" s="16">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E37" s="16">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F37" s="17">
+        <v>12665.438829891782</v>
+      </c>
+      <c r="G37" s="17">
+        <v>267906.99160605855</v>
+      </c>
+      <c r="H37" s="17">
+        <v>804317.09403729124</v>
+      </c>
+      <c r="I37" s="17">
+        <v>943603.11211726349</v>
+      </c>
+      <c r="J37" s="17">
+        <v>805929.10265798098</v>
+      </c>
+      <c r="K37" s="17">
+        <v>-137674.0094592825</v>
+      </c>
+      <c r="L37" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -449,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -554,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +566,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -668,6 +671,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>943603.11211726349</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>979862.61001506285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +716,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -815,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +833,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -929,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>805929.10265798098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>852047.00226545602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +983,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1076,6 +1088,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1100,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1190,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-137674.0094592825</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-127815.60774960683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,11 +1229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425383040"/>
-        <c:axId val="425385344"/>
+        <c:axId val="456521984"/>
+        <c:axId val="458887168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425383040"/>
+        <c:axId val="456521984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,14 +1276,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425385344"/>
+        <c:crossAx val="458887168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425385344"/>
+        <c:axId val="458887168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1334,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425383040"/>
+        <c:crossAx val="456521984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,7 +1525,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1612,6 +1630,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,8 +1647,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425652608"/>
-        <c:axId val="425650816"/>
+        <c:axId val="482991104"/>
+        <c:axId val="474523904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1652,7 +1673,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1757,6 +1778,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +1790,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1871,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.0022250976562499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0390229492187499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,11 +1914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425614336"/>
-        <c:axId val="425649280"/>
+        <c:axId val="461721984"/>
+        <c:axId val="461724288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425614336"/>
+        <c:axId val="461721984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,14 +1961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425649280"/>
+        <c:crossAx val="461724288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425649280"/>
+        <c:axId val="461724288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,12 +2019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425614336"/>
+        <c:crossAx val="461721984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425650816"/>
+        <c:axId val="474523904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,12 +2061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425652608"/>
+        <c:crossAx val="482991104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425652608"/>
+        <c:axId val="482991104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425650816"/>
+        <c:crossAx val="474523904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2484,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4006,6 +4033,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3.0390229492187499</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D38" s="16">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E38" s="16">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F38" s="17">
+        <v>11931.301113445243</v>
+      </c>
+      <c r="G38" s="17">
+        <v>279838.29271950381</v>
+      </c>
+      <c r="H38" s="17">
+        <v>850434.99364476628</v>
+      </c>
+      <c r="I38" s="17">
+        <v>979862.61001506285</v>
+      </c>
+      <c r="J38" s="17">
+        <v>852047.00226545602</v>
+      </c>
+      <c r="K38" s="17">
+        <v>-127815.60774960683</v>
+      </c>
+      <c r="L38" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -557,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,7 +573,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -674,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>979862.61001506285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1013375.6492934038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +726,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -824,6 +834,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +846,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -941,6 +954,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>852047.00226545602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>904892.93234472338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +999,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1091,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1119,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1208,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-127815.60774960683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-108482.71694868046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,11 +1251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456521984"/>
-        <c:axId val="458887168"/>
+        <c:axId val="626429312"/>
+        <c:axId val="658843520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456521984"/>
+        <c:axId val="626429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458887168"/>
+        <c:crossAx val="658843520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458887168"/>
+        <c:axId val="658843520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456521984"/>
+        <c:crossAx val="626429312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,7 +1547,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1633,6 +1655,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,8 +1672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482991104"/>
-        <c:axId val="474523904"/>
+        <c:axId val="658890752"/>
+        <c:axId val="658888960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1673,7 +1698,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1781,6 +1806,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,7 +1818,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1898,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0390229492187499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1081088867187501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461721984"/>
-        <c:axId val="461724288"/>
+        <c:axId val="658885248"/>
+        <c:axId val="658887424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461721984"/>
+        <c:axId val="658885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461724288"/>
+        <c:crossAx val="658887424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461724288"/>
+        <c:axId val="658887424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461721984"/>
+        <c:crossAx val="658885248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474523904"/>
+        <c:axId val="658888960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482991104"/>
+        <c:crossAx val="658890752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482991104"/>
+        <c:axId val="658890752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474523904"/>
+        <c:crossAx val="658888960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2484,7 +2515,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2567,7 +2598,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2619,13 +2650,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2637,10 +2668,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4068,6 +4099,44 @@
         <v>-127815.60774960683</v>
       </c>
       <c r="L38" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>45412</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3.1081088867187501</v>
+      </c>
+      <c r="C39" s="15">
+        <v>18.11000061</v>
+      </c>
+      <c r="D39" s="16">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E39" s="16">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F39" s="17">
+        <v>10782.453414532994</v>
+      </c>
+      <c r="G39" s="17">
+        <v>290620.7461340368</v>
+      </c>
+      <c r="H39" s="17">
+        <v>903280.92372403364</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1013375.6492934038</v>
+      </c>
+      <c r="J39" s="17">
+        <v>904892.93234472338</v>
+      </c>
+      <c r="K39" s="17">
+        <v>-108482.71694868046</v>
+      </c>
+      <c r="L39" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -593,97 +593,97 @@
                   <c:v>40481.406990791962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52148.221373179636</c:v>
+                  <c:v>52148.221384595599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64967.946328742102</c:v>
+                  <c:v>64967.943344615618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79182.33418903171</c:v>
+                  <c:v>79182.327064179699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105607.05180510106</c:v>
+                  <c:v>105607.04295247686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130172.61165171349</c:v>
+                  <c:v>130172.60286040753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164537.77781542929</c:v>
+                  <c:v>164537.76909293208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205760.43679266769</c:v>
+                  <c:v>205760.42812961241</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>247670.22312009777</c:v>
+                  <c:v>247670.21451229439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272590.3800609961</c:v>
+                  <c:v>272590.37152337731</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301566.39888449764</c:v>
+                  <c:v>301566.3903830148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333155.37425341766</c:v>
+                  <c:v>333155.36581838265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>372772.62095975736</c:v>
+                  <c:v>372772.61015758046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>412249.13116579794</c:v>
+                  <c:v>412249.12040118361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>447433.97088946414</c:v>
+                  <c:v>447433.96018058504</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>481135.78253253351</c:v>
+                  <c:v>481135.77185701393</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505270.14247409179</c:v>
+                  <c:v>505270.13183497789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>531926.42535211891</c:v>
+                  <c:v>531926.4147389757</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>556547.12030853529</c:v>
+                  <c:v>556547.10973878833</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>582515.92990993394</c:v>
+                  <c:v>582515.91935761459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>616108.03074959258</c:v>
+                  <c:v>616108.02021346893</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>645102.94959475833</c:v>
+                  <c:v>645102.93907674763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>672172.38558687002</c:v>
+                  <c:v>672172.37510777102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>703977.38461878558</c:v>
+                  <c:v>703977.37417300092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>741075.91602108208</c:v>
+                  <c:v>741075.90560190182</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>779004.29652438569</c:v>
+                  <c:v>779004.2861398455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>818906.47496209387</c:v>
+                  <c:v>818906.4646216234</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>858349.94796120108</c:v>
+                  <c:v>858349.93762741261</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>905578.61378933233</c:v>
+                  <c:v>905578.60346153192</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>943603.11211726349</c:v>
+                  <c:v>943603.10180380999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>979862.61001506285</c:v>
+                  <c:v>979704.81405412068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1013375.6492934038</c:v>
+                  <c:v>1013217.8533531342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,97 +866,97 @@
                   <c:v>39869.038874257116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52813.025907850562</c:v>
+                  <c:v>52813.025919266533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66545.825969857004</c:v>
+                  <c:v>66545.822985934123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79558.439401320473</c:v>
+                  <c:v>79558.432331897551</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97664.720683972031</c:v>
+                  <c:v>97664.712641225138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122042.56010108377</c:v>
+                  <c:v>122042.55213537344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143360.90437901206</c:v>
+                  <c:v>143360.89734507431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171213.32513610244</c:v>
+                  <c:v>171213.31882507156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219660.19139812523</c:v>
+                  <c:v>219660.18489909513</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272972.15173328848</c:v>
+                  <c:v>272972.14445821178</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>286289.03519777412</c:v>
+                  <c:v>286289.02837864967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>305361.68024218484</c:v>
+                  <c:v>305361.67378932296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>315895.43930199702</c:v>
+                  <c:v>315895.43109984329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>350834.74284954427</c:v>
+                  <c:v>350834.73480336484</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>405165.77582340705</c:v>
+                  <c:v>405165.76739182975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>438083.73687453551</c:v>
+                  <c:v>438083.72849269497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504627.63565710397</c:v>
+                  <c:v>504627.62649725215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>513689.15984423808</c:v>
+                  <c:v>513689.15103075519</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>543666.14031884272</c:v>
+                  <c:v>543666.13145656791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>555010.76881737297</c:v>
+                  <c:v>555010.76021162281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>563296.52850202331</c:v>
+                  <c:v>563296.52030600084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>618052.615835384</c:v>
+                  <c:v>618052.6072815709</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648803.26686322526</c:v>
+                  <c:v>648803.25829724269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>636512.23137454153</c:v>
+                  <c:v>636512.22342551209</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>645108.14440639422</c:v>
+                  <c:v>645108.13684082543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>662932.42452916608</c:v>
+                  <c:v>662932.41723460075</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>689130.78967867827</c:v>
+                  <c:v>689130.78257933992</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>721432.50510384492</c:v>
+                  <c:v>721432.49808493454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>673112.46553766658</c:v>
+                  <c:v>673112.45945643191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>805929.10265798098</c:v>
+                  <c:v>805929.09573263756</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>852047.00226545602</c:v>
+                  <c:v>851889.20960774098</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>904892.93234472338</c:v>
+                  <c:v>904731.55261608225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,97 +1139,97 @@
                   <c:v>-612.36811653484619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>664.80453467092593</c:v>
+                  <c:v>664.80453467093321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1577.8796411149015</c:v>
+                  <c:v>1577.8796413185046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>376.10521228876314</c:v>
+                  <c:v>376.10526771785226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7942.3311211290275</c:v>
+                  <c:v>-7942.3303112517169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8130.0515506297234</c:v>
+                  <c:v>-8130.0507250340888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21176.873436417227</c:v>
+                  <c:v>-21176.871747857775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34547.111656565248</c:v>
+                  <c:v>-34547.109304540849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28010.03172197254</c:v>
+                  <c:v>-28010.029613199265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381.77167229237966</c:v>
+                  <c:v>381.77293483447284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-15277.363686723518</c:v>
+                  <c:v>-15277.362004365132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-27793.694011232816</c:v>
+                  <c:v>-27793.69202905969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-56877.181657760346</c:v>
+                  <c:v>-56877.179057737172</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-61414.388316253666</c:v>
+                  <c:v>-61414.385597818764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-42268.195066057087</c:v>
+                  <c:v>-42268.192788755288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-43052.045657998009</c:v>
+                  <c:v>-43052.043364318961</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-642.50681698782137</c:v>
+                  <c:v>-642.50533772574272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-18237.265507880831</c:v>
+                  <c:v>-18237.263708220504</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-12880.979989692569</c:v>
+                  <c:v>-12880.978282220429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-27505.161092560971</c:v>
+                  <c:v>-27505.159145991784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-52811.502247569268</c:v>
+                  <c:v>-52811.499907468096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-27050.333759374334</c:v>
+                  <c:v>-27050.331795176724</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-23369.118723644759</c:v>
+                  <c:v>-23369.116810528329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-67465.153244244051</c:v>
+                  <c:v>-67465.150747488835</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-95967.771614687867</c:v>
+                  <c:v>-95967.768761076382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-116071.87199521961</c:v>
+                  <c:v>-116071.86890524474</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-129775.6852834156</c:v>
+                  <c:v>-129775.68204228347</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-136917.44285735616</c:v>
+                  <c:v>-136917.43954247807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-232466.14825166576</c:v>
+                  <c:v>-232466.14400510001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-137674.0094592825</c:v>
+                  <c:v>-137674.00607117242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-127815.60774960683</c:v>
+                  <c:v>-127815.6044463797</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-108482.71694868046</c:v>
+                  <c:v>-108486.30073705199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,11 +1251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626429312"/>
-        <c:axId val="658843520"/>
+        <c:axId val="692288512"/>
+        <c:axId val="692291072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626429312"/>
+        <c:axId val="692288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658843520"/>
+        <c:crossAx val="692291072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658843520"/>
+        <c:axId val="692291072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626429312"/>
+        <c:crossAx val="692288512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1567,97 +1567,97 @@
                   <c:v>18607.735896751474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>11666.814393803639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>12819.721960020022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>14214.383719564079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39617.246706339683</c:v>
+                  <c:v>39617.24433919783</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39476.510206040606</c:v>
+                  <c:v>39476.510243603116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39902.178437708179</c:v>
+                  <c:v>39902.178481777861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47228.665828131299</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33513.039278340933</c:v>
+                  <c:v>33513.039299013537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,8 +1672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="658890752"/>
-        <c:axId val="658888960"/>
+        <c:axId val="693222400"/>
+        <c:axId val="693220480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1945,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658885248"/>
-        <c:axId val="658887424"/>
+        <c:axId val="693174272"/>
+        <c:axId val="693177728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658885248"/>
+        <c:axId val="693174272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +1992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658887424"/>
+        <c:crossAx val="693177728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658887424"/>
+        <c:axId val="693177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658885248"/>
+        <c:crossAx val="693174272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658888960"/>
+        <c:axId val="693220480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658890752"/>
+        <c:crossAx val="693222400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="658890752"/>
+        <c:axId val="693222400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658888960"/>
+        <c:crossAx val="693220480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2678,11 +2678,11 @@
       </c>
       <c r="Z3" s="28">
         <f>Q4</f>
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-79182.33418903171</v>
+        <v>-79182.327064179699</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,36 +2727,36 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="9">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="R4" s="4">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="S4" s="4">
-        <v>79558.439401320473</v>
+        <v>79558.432331897551</v>
       </c>
       <c r="T4" s="4">
-        <v>376.10521228876314</v>
+        <v>376.10526771785226</v>
       </c>
       <c r="U4" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V4" s="8">
-        <v>4.7498626573812342E-3</v>
+        <v>4.7498637847938905E-3</v>
       </c>
       <c r="W4" s="8">
-        <v>4.7498626573812342E-3</v>
+        <v>4.7498637847938905E-3</v>
       </c>
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
       <c r="Z4" s="28">
         <f>Q5</f>
-        <v>401953.44834350178</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-401953.44834350178</v>
+        <v>-401953.44479283423</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,32 +2801,32 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="9">
-        <v>401953.44834350178</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="R5" s="4">
-        <v>481135.78253253351</v>
+        <v>481135.77185701393</v>
       </c>
       <c r="S5" s="4">
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
       <c r="T5" s="4">
-        <v>-43052.045657998009</v>
+        <v>-43052.043364318961</v>
       </c>
       <c r="U5" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V5" s="8">
-        <v>-8.9480032915836824E-2</v>
+        <v>-8.9480030134016633E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-7.7687910354100831E-2</v>
+        <v>-7.76879086136254E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
         <f>VLOOKUP(Y5,P:S,4)</f>
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="M6" s="6"/>
       <c r="AA6" s="2">
-        <v>-7.7687910354100831E-2</v>
+        <v>-7.76879086136254E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2957,31 +2957,31 @@
         <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D9" s="16">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E9" s="16">
-        <v>11666.814382387671</v>
+        <v>11666.814393803639</v>
       </c>
       <c r="F9" s="17">
-        <v>2396.6832478867009</v>
+        <v>2396.6832502318534</v>
       </c>
       <c r="G9" s="17">
-        <v>10518.091433094523</v>
+        <v>10518.091435439677</v>
       </c>
       <c r="H9" s="17">
-        <v>51201.01728716083</v>
+        <v>51201.0172985768</v>
       </c>
       <c r="I9" s="17">
-        <v>52148.221373179636</v>
+        <v>52148.221384595599</v>
       </c>
       <c r="J9" s="17">
-        <v>52813.025907850562</v>
+        <v>52813.025919266533</v>
       </c>
       <c r="K9" s="17">
-        <v>664.80453467092593</v>
+        <v>664.80453467093321</v>
       </c>
       <c r="L9" s="16">
         <v>1612.0086206897299</v>
@@ -2996,31 +2996,31 @@
         <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D10" s="16">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E10" s="16">
-        <v>12819.724955562464</v>
+        <v>12819.721960020022</v>
       </c>
       <c r="F10" s="17">
-        <v>2587.3815130718158</v>
+        <v>2587.3809084869931</v>
       </c>
       <c r="G10" s="17">
-        <v>13105.472946166339</v>
+        <v>13105.472343926671</v>
       </c>
       <c r="H10" s="17">
-        <v>64933.817349167279</v>
+        <v>64933.814365244398</v>
       </c>
       <c r="I10" s="17">
-        <v>64967.946328742102</v>
+        <v>64967.943344615618</v>
       </c>
       <c r="J10" s="17">
-        <v>66545.825969857004</v>
+        <v>66545.822985934123</v>
       </c>
       <c r="K10" s="17">
-        <v>1577.8796411149015</v>
+        <v>1577.8796413185046</v>
       </c>
       <c r="L10" s="16">
         <v>1612.0086206897299</v>
@@ -3035,31 +3035,31 @@
         <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D11" s="16">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E11" s="16">
-        <v>14214.387860289606</v>
+        <v>14214.383719564079</v>
       </c>
       <c r="F11" s="17">
-        <v>2922.9609943961846</v>
+        <v>2922.9601429223594</v>
       </c>
       <c r="G11" s="17">
-        <v>16028.433940562523</v>
+        <v>16028.432486849029</v>
       </c>
       <c r="H11" s="17">
-        <v>77946.430780630748</v>
+        <v>77946.423711207826</v>
       </c>
       <c r="I11" s="17">
-        <v>79182.33418903171</v>
+        <v>79182.327064179699</v>
       </c>
       <c r="J11" s="17">
-        <v>79558.439401320473</v>
+        <v>79558.432331897551</v>
       </c>
       <c r="K11" s="17">
-        <v>376.10521228876314</v>
+        <v>376.10526771785226</v>
       </c>
       <c r="L11" s="16">
         <v>1612.0086206897299</v>
@@ -3074,31 +3074,31 @@
         <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D12" s="16">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E12" s="16">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F12" s="17">
-        <v>6082.9964164527191</v>
+        <v>6082.9960187178349</v>
       </c>
       <c r="G12" s="17">
-        <v>22111.430357015241</v>
+        <v>22111.428505566866</v>
       </c>
       <c r="H12" s="17">
-        <v>96052.712063282306</v>
+        <v>96052.704020535413</v>
       </c>
       <c r="I12" s="17">
-        <v>105607.05180510106</v>
+        <v>105607.04295247686</v>
       </c>
       <c r="J12" s="17">
-        <v>97664.720683972031</v>
+        <v>97664.712641225138</v>
       </c>
       <c r="K12" s="17">
-        <v>-7942.3311211290275</v>
+        <v>-7942.3303112517169</v>
       </c>
       <c r="L12" s="16">
         <v>1612.0086206897299</v>
@@ -3113,31 +3113,31 @@
         <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D13" s="16">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E13" s="16">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F13" s="17">
-        <v>5666.0899507975491</v>
+        <v>5666.0899649407083</v>
       </c>
       <c r="G13" s="17">
-        <v>27777.520307812789</v>
+        <v>27777.518470507574</v>
       </c>
       <c r="H13" s="17">
-        <v>120430.55148039405</v>
+        <v>120430.54351468371</v>
       </c>
       <c r="I13" s="17">
-        <v>130172.61165171349</v>
+        <v>130172.60286040753</v>
       </c>
       <c r="J13" s="17">
-        <v>122042.56010108377</v>
+        <v>122042.55213537344</v>
       </c>
       <c r="K13" s="17">
-        <v>-8130.0515506297234</v>
+        <v>-8130.0507250340888</v>
       </c>
       <c r="L13" s="16">
         <v>1612.0086206897299</v>
@@ -3152,31 +3152,31 @@
         <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D14" s="16">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E14" s="16">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F14" s="17">
-        <v>8889.4202557285862</v>
+        <v>8889.4202735277104</v>
       </c>
       <c r="G14" s="17">
-        <v>36666.940563541371</v>
+        <v>36666.938744035288</v>
       </c>
       <c r="H14" s="17">
-        <v>141748.89575832232</v>
+        <v>141748.88872438457</v>
       </c>
       <c r="I14" s="17">
-        <v>164537.77781542929</v>
+        <v>164537.76909293208</v>
       </c>
       <c r="J14" s="17">
-        <v>143360.90437901206</v>
+        <v>143360.89734507431</v>
       </c>
       <c r="K14" s="17">
-        <v>-21176.873436417227</v>
+        <v>-21176.871747857775</v>
       </c>
       <c r="L14" s="16">
         <v>1612.0086206897299</v>
@@ -3191,31 +3191,31 @@
         <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D15" s="16">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E15" s="16">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F15" s="17">
-        <v>11773.832314300978</v>
+        <v>11773.832331278516</v>
       </c>
       <c r="G15" s="17">
-        <v>48440.772877842348</v>
+        <v>48440.771075313802</v>
       </c>
       <c r="H15" s="17">
-        <v>169601.31651541271</v>
+        <v>169601.31020438182</v>
       </c>
       <c r="I15" s="17">
-        <v>205760.43679266769</v>
+        <v>205760.42812961241</v>
       </c>
       <c r="J15" s="17">
-        <v>171213.32513610244</v>
+        <v>171213.31882507156</v>
       </c>
       <c r="K15" s="17">
-        <v>-34547.111656565248</v>
+        <v>-34547.109304540849</v>
       </c>
       <c r="L15" s="16">
         <v>1612.0086206897299</v>
@@ -3230,31 +3230,31 @@
         <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D16" s="16">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E16" s="16">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F16" s="17">
-        <v>11525.836965491915</v>
+        <v>11525.836980687045</v>
       </c>
       <c r="G16" s="17">
-        <v>59966.609843334263</v>
+        <v>59966.608056000849</v>
       </c>
       <c r="H16" s="17">
-        <v>218048.18277743549</v>
+        <v>218048.17627840539</v>
       </c>
       <c r="I16" s="17">
-        <v>247670.22312009777</v>
+        <v>247670.21451229439</v>
       </c>
       <c r="J16" s="17">
-        <v>219660.19139812523</v>
+        <v>219660.18489909513</v>
       </c>
       <c r="K16" s="17">
-        <v>-28010.03172197254</v>
+        <v>-28010.029613199265</v>
       </c>
       <c r="L16" s="16">
         <v>1612.0086206897299</v>
@@ -3269,31 +3269,31 @@
         <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D17" s="16">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E17" s="16">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F17" s="17">
-        <v>6063.8590016327171</v>
+        <v>6063.8590187108448</v>
       </c>
       <c r="G17" s="17">
-        <v>66030.468844966977</v>
+        <v>66030.467074711691</v>
       </c>
       <c r="H17" s="17">
-        <v>271360.14311259874</v>
+        <v>271360.13583752204</v>
       </c>
       <c r="I17" s="17">
-        <v>272590.3800609961</v>
+        <v>272590.37152337731</v>
       </c>
       <c r="J17" s="17">
-        <v>272972.15173328848</v>
+        <v>272972.14445821178</v>
       </c>
       <c r="K17" s="17">
-        <v>381.77167229237966</v>
+        <v>381.77293483447284</v>
       </c>
       <c r="L17" s="16">
         <v>1612.0086206897299</v>
@@ -3308,31 +3308,31 @@
         <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D18" s="16">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E18" s="16">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F18" s="17">
-        <v>7482.5677262102445</v>
+        <v>7482.5677355417383</v>
       </c>
       <c r="G18" s="17">
-        <v>73513.036571177217</v>
+        <v>73513.034810253434</v>
       </c>
       <c r="H18" s="17">
-        <v>284677.02657708438</v>
+        <v>284677.01975795993</v>
       </c>
       <c r="I18" s="17">
-        <v>301566.39888449764</v>
+        <v>301566.3903830148</v>
       </c>
       <c r="J18" s="17">
-        <v>286289.03519777412</v>
+        <v>286289.02837864967</v>
       </c>
       <c r="K18" s="17">
-        <v>-15277.363686723518</v>
+        <v>-15277.362004365132</v>
       </c>
       <c r="L18" s="16">
         <v>1612.0086206897299</v>
@@ -3347,31 +3347,31 @@
         <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D19" s="16">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E19" s="16">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F19" s="17">
-        <v>8532.4645825653952</v>
+        <v>8532.4646005135346</v>
       </c>
       <c r="G19" s="17">
-        <v>82045.501153742618</v>
+        <v>82045.499410766963</v>
       </c>
       <c r="H19" s="17">
-        <v>303749.6716214951</v>
+        <v>303749.66516863322</v>
       </c>
       <c r="I19" s="17">
-        <v>333155.37425341766</v>
+        <v>333155.36581838265</v>
       </c>
       <c r="J19" s="17">
-        <v>305361.68024218484</v>
+        <v>305361.67378932296</v>
       </c>
       <c r="K19" s="17">
-        <v>-27793.694011232816</v>
+        <v>-27793.69202905969</v>
       </c>
       <c r="L19" s="16">
         <v>1612.0086206897299</v>
@@ -3386,31 +3386,31 @@
         <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D20" s="16">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E20" s="16">
-        <v>39617.246706339683</v>
+        <v>39617.24433919783</v>
       </c>
       <c r="F20" s="17">
-        <v>11834.062764163693</v>
+        <v>11834.062057075049</v>
       </c>
       <c r="G20" s="17">
-        <v>93879.563917906315</v>
+        <v>93879.56146784201</v>
       </c>
       <c r="H20" s="17">
-        <v>314283.43068130728</v>
+        <v>314283.42247915355</v>
       </c>
       <c r="I20" s="17">
-        <v>372772.62095975736</v>
+        <v>372772.61015758046</v>
       </c>
       <c r="J20" s="17">
-        <v>315895.43930199702</v>
+        <v>315895.43109984329</v>
       </c>
       <c r="K20" s="17">
-        <v>-56877.181657760346</v>
+        <v>-56877.179057737172</v>
       </c>
       <c r="L20" s="16">
         <v>1612.0086206897299</v>
@@ -3426,31 +3426,31 @@
         <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D21" s="16">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E21" s="16">
-        <v>39476.510206040606</v>
+        <v>39476.510243603116</v>
       </c>
       <c r="F21" s="17">
-        <v>11964.754614315836</v>
+        <v>11964.754625700485</v>
       </c>
       <c r="G21" s="17">
-        <v>105844.31853222215</v>
+        <v>105844.3160935425</v>
       </c>
       <c r="H21" s="17">
-        <v>349222.73422885453</v>
+        <v>349222.72618267511</v>
       </c>
       <c r="I21" s="17">
-        <v>412249.13116579794</v>
+        <v>412249.12040118361</v>
       </c>
       <c r="J21" s="17">
-        <v>350834.74284954427</v>
+        <v>350834.73480336484</v>
       </c>
       <c r="K21" s="17">
-        <v>-61414.388316253666</v>
+        <v>-61414.385597818764</v>
       </c>
       <c r="L21" s="16">
         <v>1612.0086206897299</v>
@@ -3464,31 +3464,31 @@
         <v>3.4802900390625</v>
       </c>
       <c r="C22" s="15">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D22" s="16">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E22" s="16">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F22" s="17">
-        <v>10109.743535381918</v>
+        <v>10109.743551396452</v>
       </c>
       <c r="G22" s="17">
-        <v>115954.06206760407</v>
+        <v>115954.05964493894</v>
       </c>
       <c r="H22" s="17">
-        <v>403553.76720271731</v>
+        <v>403553.75877114001</v>
       </c>
       <c r="I22" s="17">
-        <v>447433.97088946414</v>
+        <v>447433.96018058504</v>
       </c>
       <c r="J22" s="17">
-        <v>405165.77582340705</v>
+        <v>405165.76739182975</v>
       </c>
       <c r="K22" s="17">
-        <v>-42268.195066057087</v>
+        <v>-42268.192788755288</v>
       </c>
       <c r="L22" s="16">
         <v>1612.0086206897299</v>
@@ -3502,31 +3502,31 @@
         <v>3.4735300292968749</v>
       </c>
       <c r="C23" s="15">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D23" s="16">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E23" s="16">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F23" s="17">
-        <v>9702.4673340427144</v>
+        <v>9702.4673436466455</v>
       </c>
       <c r="G23" s="17">
-        <v>125656.52940164678</v>
+        <v>125656.52698858558</v>
       </c>
       <c r="H23" s="17">
-        <v>436471.72825384577</v>
+        <v>436471.71987200523</v>
       </c>
       <c r="I23" s="17">
-        <v>481135.78253253351</v>
+        <v>481135.77185701393</v>
       </c>
       <c r="J23" s="17">
-        <v>438083.73687453551</v>
+        <v>438083.72849269497</v>
       </c>
       <c r="K23" s="17">
-        <v>-43052.045657998009</v>
+        <v>-43052.043364318961</v>
       </c>
       <c r="L23" s="16">
         <v>1612.0086206897299</v>
@@ -3543,28 +3543,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D24" s="16">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E24" s="16">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F24" s="17">
-        <v>6332.7595334516254</v>
+        <v>6332.7595430043411</v>
       </c>
       <c r="G24" s="17">
-        <v>131989.28893509842</v>
+        <v>131989.28653158993</v>
       </c>
       <c r="H24" s="17">
-        <v>503015.62703641423</v>
+        <v>503015.61787656241</v>
       </c>
       <c r="I24" s="17">
-        <v>505270.14247409179</v>
+        <v>505270.13183497789</v>
       </c>
       <c r="J24" s="17">
-        <v>504627.63565710397</v>
+        <v>504627.62649725215</v>
       </c>
       <c r="K24" s="17">
-        <v>-642.50681698782137</v>
+        <v>-642.50533772574272</v>
       </c>
       <c r="L24" s="16">
         <v>1612.0086206897299</v>
@@ -3578,31 +3578,31 @@
         <v>3.6777292480468748</v>
       </c>
       <c r="C25" s="15">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D25" s="16">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E25" s="16">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F25" s="17">
-        <v>7248.0275409570841</v>
+        <v>7248.0275480186747</v>
       </c>
       <c r="G25" s="17">
-        <v>139237.31647605551</v>
+        <v>139237.31407960859</v>
       </c>
       <c r="H25" s="17">
-        <v>512077.15122354834</v>
+        <v>512077.14241006545</v>
       </c>
       <c r="I25" s="17">
-        <v>531926.42535211891</v>
+        <v>531926.4147389757</v>
       </c>
       <c r="J25" s="17">
-        <v>513689.15984423808</v>
+        <v>513689.15103075519</v>
       </c>
       <c r="K25" s="17">
-        <v>-18237.265507880831</v>
+        <v>-18237.263708220504</v>
       </c>
       <c r="L25" s="16">
         <v>1612.0086206897299</v>
@@ -3616,31 +3616,31 @@
         <v>3.7161979980468751</v>
       </c>
       <c r="C26" s="15">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D26" s="16">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E26" s="16">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F26" s="17">
-        <v>6625.2376674645011</v>
+        <v>6625.2376791421266</v>
       </c>
       <c r="G26" s="17">
-        <v>145862.55414352001</v>
+        <v>145862.55175875072</v>
       </c>
       <c r="H26" s="17">
-        <v>542054.13169815298</v>
+        <v>542054.12283587817</v>
       </c>
       <c r="I26" s="17">
-        <v>556547.12030853529</v>
+        <v>556547.10973878833</v>
       </c>
       <c r="J26" s="17">
-        <v>543666.14031884272</v>
+        <v>543666.13145656791</v>
       </c>
       <c r="K26" s="17">
-        <v>-12880.979989692569</v>
+        <v>-12880.978282220429</v>
       </c>
       <c r="L26" s="16">
         <v>1612.0086206897299</v>
@@ -3654,31 +3654,31 @@
         <v>3.6159379882812499</v>
       </c>
       <c r="C27" s="15">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D27" s="16">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E27" s="16">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F27" s="17">
-        <v>7181.7629853055796</v>
+        <v>7181.7629901252731</v>
       </c>
       <c r="G27" s="17">
-        <v>153044.31712882558</v>
+        <v>153044.314748876</v>
       </c>
       <c r="H27" s="17">
-        <v>553398.76019668323</v>
+        <v>553398.75159093307</v>
       </c>
       <c r="I27" s="17">
-        <v>582515.92990993394</v>
+        <v>582515.91935761459</v>
       </c>
       <c r="J27" s="17">
-        <v>555010.76881737297</v>
+        <v>555010.76021162281</v>
       </c>
       <c r="K27" s="17">
-        <v>-27505.161092560971</v>
+        <v>-27505.159145991784</v>
       </c>
       <c r="L27" s="16">
         <v>1612.0086206897299</v>
@@ -3692,31 +3692,31 @@
         <v>3.4505849609374999</v>
       </c>
       <c r="C28" s="15">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D28" s="16">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E28" s="16">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F28" s="17">
-        <v>9735.1901836759698</v>
+        <v>9735.1901883695737</v>
       </c>
       <c r="G28" s="17">
-        <v>162779.50731250155</v>
+        <v>162779.50493724557</v>
       </c>
       <c r="H28" s="17">
-        <v>561684.51988133357</v>
+        <v>561684.5116853111</v>
       </c>
       <c r="I28" s="17">
-        <v>616108.03074959258</v>
+        <v>616108.02021346893</v>
       </c>
       <c r="J28" s="17">
-        <v>563296.52850202331</v>
+        <v>563296.52030600084</v>
       </c>
       <c r="K28" s="17">
-        <v>-52811.502247569268</v>
+        <v>-52811.499907468096</v>
       </c>
       <c r="L28" s="16">
         <v>1612.0086206897299</v>
@@ -3730,31 +3730,31 @@
         <v>3.608843017578125</v>
       </c>
       <c r="C29" s="15">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D29" s="16">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E29" s="16">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F29" s="17">
-        <v>8034.4084527744462</v>
+        <v>8034.4084577934827</v>
       </c>
       <c r="G29" s="17">
-        <v>170813.915765276</v>
+        <v>170813.91339503904</v>
       </c>
       <c r="H29" s="17">
-        <v>616440.60721469426</v>
+        <v>616440.59866088117</v>
       </c>
       <c r="I29" s="17">
-        <v>645102.94959475833</v>
+        <v>645102.93907674763</v>
       </c>
       <c r="J29" s="17">
-        <v>618052.615835384</v>
+        <v>618052.6072815709</v>
       </c>
       <c r="K29" s="17">
-        <v>-27050.333759374334</v>
+        <v>-27050.331795176724</v>
       </c>
       <c r="L29" s="16">
         <v>1612.0086206897299</v>
@@ -3768,31 +3768,31 @@
         <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D30" s="16">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E30" s="16">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F30" s="17">
-        <v>7456.3355029019631</v>
+        <v>7456.3355136202654</v>
       </c>
       <c r="G30" s="17">
-        <v>178270.25126817796</v>
+        <v>178270.2489086593</v>
       </c>
       <c r="H30" s="17">
-        <v>647191.25824253552</v>
+        <v>647191.24967655295</v>
       </c>
       <c r="I30" s="17">
-        <v>672172.38558687002</v>
+        <v>672172.37510777102</v>
       </c>
       <c r="J30" s="17">
-        <v>648803.26686322526</v>
+        <v>648803.25829724269</v>
       </c>
       <c r="K30" s="17">
-        <v>-23369.118723644759</v>
+        <v>-23369.116810528329</v>
       </c>
       <c r="L30" s="16">
         <v>1612.0086206897299</v>
@@ -3806,31 +3806,31 @@
         <v>3.3830390625</v>
       </c>
       <c r="C31" s="15">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D31" s="16">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E31" s="16">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F31" s="17">
-        <v>9401.3100186943539</v>
+        <v>9401.3100285418022</v>
       </c>
       <c r="G31" s="17">
-        <v>187671.56128687231</v>
+        <v>187671.5589372011</v>
       </c>
       <c r="H31" s="17">
-        <v>634900.22275385179</v>
+        <v>634900.21480482235</v>
       </c>
       <c r="I31" s="17">
-        <v>703977.38461878558</v>
+        <v>703977.37417300092</v>
       </c>
       <c r="J31" s="17">
-        <v>636512.23137454153</v>
+        <v>636512.22342551209</v>
       </c>
       <c r="K31" s="17">
-        <v>-67465.153244244051</v>
+        <v>-67465.150747488835</v>
       </c>
       <c r="L31" s="16">
         <v>1612.0086206897299</v>
@@ -3847,28 +3847,28 @@
         <v>19.25</v>
       </c>
       <c r="D32" s="16">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E32" s="16">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F32" s="17">
-        <v>11481.475618292439</v>
+        <v>11481.475626526113</v>
       </c>
       <c r="G32" s="17">
-        <v>199153.03690516474</v>
+        <v>199153.03456372721</v>
       </c>
       <c r="H32" s="17">
-        <v>643496.13578570448</v>
+        <v>643496.1282201357</v>
       </c>
       <c r="I32" s="17">
-        <v>741075.91602108208</v>
+        <v>741075.90560190182</v>
       </c>
       <c r="J32" s="17">
-        <v>645108.14440639422</v>
+        <v>645108.13684082543</v>
       </c>
       <c r="K32" s="17">
-        <v>-95967.771614687867</v>
+        <v>-95967.768761076382</v>
       </c>
       <c r="L32" s="16">
         <v>1612.0086206897299</v>
@@ -3882,31 +3882,31 @@
         <v>3.1302160644531249</v>
       </c>
       <c r="C33" s="15">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D33" s="16">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E33" s="16">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F33" s="17">
-        <v>12116.857022753164</v>
+        <v>12116.857033819513</v>
       </c>
       <c r="G33" s="17">
-        <v>211269.8939279179</v>
+        <v>211269.89159754672</v>
       </c>
       <c r="H33" s="17">
-        <v>661320.41590847634</v>
+        <v>661320.40861391101</v>
       </c>
       <c r="I33" s="17">
-        <v>779004.29652438569</v>
+        <v>779004.2861398455</v>
       </c>
       <c r="J33" s="17">
-        <v>662932.42452916608</v>
+        <v>662932.41723460075</v>
       </c>
       <c r="K33" s="17">
-        <v>-116071.87199521961</v>
+        <v>-116071.86890524474</v>
       </c>
       <c r="L33" s="16">
         <v>1612.0086206897299</v>
@@ -3920,31 +3920,31 @@
         <v>3.0653520507812502</v>
       </c>
       <c r="C34" s="15">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D34" s="16">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E34" s="16">
-        <v>39902.178437708179</v>
+        <v>39902.178481777861</v>
       </c>
       <c r="F34" s="17">
-        <v>13017.160109729817</v>
+        <v>13017.160124106529</v>
       </c>
       <c r="G34" s="17">
-        <v>224287.05403764773</v>
+        <v>224287.05172165326</v>
       </c>
       <c r="H34" s="17">
-        <v>687518.78105798853</v>
+        <v>687518.77395865018</v>
       </c>
       <c r="I34" s="17">
-        <v>818906.47496209387</v>
+        <v>818906.4646216234</v>
       </c>
       <c r="J34" s="17">
-        <v>689130.78967867827</v>
+        <v>689130.78257933992</v>
       </c>
       <c r="K34" s="17">
-        <v>-129775.6852834156</v>
+        <v>-129775.68204228347</v>
       </c>
       <c r="L34" s="16">
         <v>1612.0086206897299</v>
@@ -3958,31 +3958,31 @@
         <v>3.0335100097656249</v>
       </c>
       <c r="C35" s="15">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D35" s="16">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E35" s="16">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F35" s="17">
-        <v>13002.585411661341</v>
+        <v>13002.585413864099</v>
       </c>
       <c r="G35" s="17">
-        <v>237289.63944930906</v>
+        <v>237289.63713551735</v>
       </c>
       <c r="H35" s="17">
-        <v>719820.49648315518</v>
+        <v>719820.48946424481</v>
       </c>
       <c r="I35" s="17">
-        <v>858349.94796120108</v>
+        <v>858349.93762741261</v>
       </c>
       <c r="J35" s="17">
-        <v>721432.50510384492</v>
+        <v>721432.49808493454</v>
       </c>
       <c r="K35" s="17">
-        <v>-136917.44285735616</v>
+        <v>-136917.43954247807</v>
       </c>
       <c r="L35" s="16">
         <v>1612.0086206897299</v>
@@ -3996,31 +3996,31 @@
         <v>2.6308430175781252</v>
       </c>
       <c r="C36" s="15">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D36" s="16">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E36" s="16">
-        <v>47228.665828131299</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F36" s="17">
-        <v>17951.91332685771</v>
+        <v>17951.9133291338</v>
       </c>
       <c r="G36" s="17">
-        <v>255241.55277616676</v>
+        <v>255241.55046465114</v>
       </c>
       <c r="H36" s="17">
-        <v>671500.45691697684</v>
+        <v>671500.45083574217</v>
       </c>
       <c r="I36" s="17">
-        <v>905578.61378933233</v>
+        <v>905578.60346153192</v>
       </c>
       <c r="J36" s="17">
-        <v>673112.46553766658</v>
+        <v>673112.45945643191</v>
       </c>
       <c r="K36" s="17">
-        <v>-232466.14825166576</v>
+        <v>-232466.14400510001</v>
       </c>
       <c r="L36" s="16">
         <v>1612.0086206897299</v>
@@ -4034,31 +4034,31 @@
         <v>3.0022250976562499</v>
       </c>
       <c r="C37" s="15">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D37" s="16">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E37" s="16">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F37" s="17">
-        <v>12665.438829891782</v>
+        <v>12665.438834670551</v>
       </c>
       <c r="G37" s="17">
-        <v>267906.99160605855</v>
+        <v>267906.98929932166</v>
       </c>
       <c r="H37" s="17">
-        <v>804317.09403729124</v>
+        <v>804317.08711194783</v>
       </c>
       <c r="I37" s="17">
-        <v>943603.11211726349</v>
+        <v>943603.10180380999</v>
       </c>
       <c r="J37" s="17">
-        <v>805929.10265798098</v>
+        <v>805929.09573263756</v>
       </c>
       <c r="K37" s="17">
-        <v>-137674.0094592825</v>
+        <v>-137674.00607117242</v>
       </c>
       <c r="L37" s="16">
         <v>1612.0086206897299</v>
@@ -4072,31 +4072,31 @@
         <v>3.0390229492187499</v>
       </c>
       <c r="C38" s="15">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D38" s="16">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E38" s="16">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F38" s="17">
-        <v>11931.301113445243</v>
+        <v>11879.381252975229</v>
       </c>
       <c r="G38" s="17">
-        <v>279838.29271950381</v>
+        <v>279786.37055229687</v>
       </c>
       <c r="H38" s="17">
-        <v>850434.99364476628</v>
+        <v>850277.20098705124</v>
       </c>
       <c r="I38" s="17">
-        <v>979862.61001506285</v>
+        <v>979704.81405412068</v>
       </c>
       <c r="J38" s="17">
-        <v>852047.00226545602</v>
+        <v>851889.20960774098</v>
       </c>
       <c r="K38" s="17">
-        <v>-127815.60774960683</v>
+        <v>-127815.6044463797</v>
       </c>
       <c r="L38" s="16">
         <v>1612.0086206897299</v>
@@ -4110,31 +4110,31 @@
         <v>3.1081088867187501</v>
       </c>
       <c r="C39" s="15">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D39" s="16">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E39" s="16">
-        <v>33513.039278340933</v>
+        <v>33513.039299013537</v>
       </c>
       <c r="F39" s="17">
-        <v>10782.453414532994</v>
+        <v>10782.453421184178</v>
       </c>
       <c r="G39" s="17">
-        <v>290620.7461340368</v>
+        <v>290568.82397348102</v>
       </c>
       <c r="H39" s="17">
-        <v>903280.92372403364</v>
+        <v>903119.54399539251</v>
       </c>
       <c r="I39" s="17">
-        <v>1013375.6492934038</v>
+        <v>1013217.8533531342</v>
       </c>
       <c r="J39" s="17">
-        <v>904892.93234472338</v>
+        <v>904731.55261608225</v>
       </c>
       <c r="K39" s="17">
-        <v>-108482.71694868046</v>
+        <v>-108486.30073705199</v>
       </c>
       <c r="L39" s="16">
         <v>1612.0086206897299</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -1251,11 +1251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692288512"/>
-        <c:axId val="692291072"/>
+        <c:axId val="578021248"/>
+        <c:axId val="578023424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="692288512"/>
+        <c:axId val="578021248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692291072"/>
+        <c:crossAx val="578023424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="692291072"/>
+        <c:axId val="578023424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692288512"/>
+        <c:crossAx val="578021248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,8 +1672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="693222400"/>
-        <c:axId val="693220480"/>
+        <c:axId val="638048896"/>
+        <c:axId val="616942592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1945,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="693174272"/>
-        <c:axId val="693177728"/>
+        <c:axId val="616836480"/>
+        <c:axId val="616940672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="693174272"/>
+        <c:axId val="616836480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +1992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693177728"/>
+        <c:crossAx val="616940672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="693177728"/>
+        <c:axId val="616940672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693174272"/>
+        <c:crossAx val="616836480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693220480"/>
+        <c:axId val="616942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693222400"/>
+        <c:crossAx val="638048896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="693222400"/>
+        <c:axId val="638048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693220480"/>
+        <c:crossAx val="616942592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,6 +297,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,7 +450,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -564,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +573,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -684,6 +684,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1013217.8533531342</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1045053.7393810864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +729,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -837,6 +840,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +852,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -957,6 +963,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>904731.55261608225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>910342.46724595909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1008,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1110,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1131,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1230,6 +1242,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-108486.30073705199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-134711.27213512734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,11 +1266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578021248"/>
-        <c:axId val="578023424"/>
+        <c:axId val="671785344"/>
+        <c:axId val="671786880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578021248"/>
+        <c:axId val="671785344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578023424"/>
+        <c:crossAx val="671786880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578023424"/>
+        <c:axId val="671786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1371,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578021248"/>
+        <c:crossAx val="671785344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1562,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1658,6 +1673,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,8 +1690,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638048896"/>
-        <c:axId val="616942592"/>
+        <c:axId val="672897664"/>
+        <c:axId val="672896128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1698,7 +1716,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1809,6 +1827,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,7 +1839,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1929,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.1081088867187501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.01785498046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,11 +1969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616836480"/>
-        <c:axId val="616940672"/>
+        <c:axId val="672880128"/>
+        <c:axId val="672881664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616836480"/>
+        <c:axId val="672880128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +2016,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616940672"/>
+        <c:crossAx val="672881664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616940672"/>
+        <c:axId val="672881664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616836480"/>
+        <c:crossAx val="672880128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616942592"/>
+        <c:axId val="672896128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2116,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638048896"/>
+        <c:crossAx val="672897664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638048896"/>
+        <c:axId val="672897664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616942592"/>
+        <c:crossAx val="672896128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2539,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2550,7 +2574,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2613,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2598,7 +2622,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2611,7 +2635,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2650,13 +2674,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2668,10 +2692,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -2684,8 +2708,18 @@
         <f>-Z3</f>
         <v>-79182.327064179699</v>
       </c>
+      <c r="AB3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>79182.327064179699</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-79182.327064179699</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2758,8 +2792,18 @@
         <f>-Z4</f>
         <v>-401953.44479283423</v>
       </c>
+      <c r="AB4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2828,8 +2872,18 @@
         <f>VLOOKUP(Y5,P:S,4)</f>
         <v>438083.72849269497</v>
       </c>
+      <c r="AB5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>-AC5</f>
+        <v>-377214.16577039869</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -2867,11 +2921,41 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M6" s="6"/>
+      <c r="P6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="R6" s="4">
+        <v>858349.93762741261</v>
+      </c>
+      <c r="S6" s="4">
+        <v>721432.49808493454</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-136917.43954247807</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1612.0086206897299</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-0.15951237780821087</v>
+      </c>
+      <c r="W6" s="8">
+        <v>-0.10105722686370289</v>
+      </c>
       <c r="AA6" s="2">
         <v>-7.76879086136254E-2</v>
       </c>
+      <c r="AB6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>721432.49808493454</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -2909,8 +2993,11 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="AD7" s="2">
+        <v>-0.10105722686370289</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -2949,7 +3036,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -2988,7 +3075,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3027,7 +3114,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3066,7 +3153,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3105,7 +3192,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3144,7 +3231,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3183,7 +3270,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3222,7 +3309,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4139,6 +4226,47 @@
       <c r="L39" s="16">
         <v>1612.0086206897299</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>45443</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.01785498046875</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D40" s="16">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E40" s="16">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F40" s="17">
+        <v>10549.176893519021</v>
+      </c>
+      <c r="G40" s="17">
+        <v>301118.00086700002</v>
+      </c>
+      <c r="H40" s="17">
+        <v>908730.45862526936</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1045053.7393810864</v>
+      </c>
+      <c r="J40" s="17">
+        <v>910342.46724595909</v>
+      </c>
+      <c r="K40" s="17">
+        <v>-134711.27213512734</v>
+      </c>
+      <c r="L40" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -297,7 +297,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -564,6 +563,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +575,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -687,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1045053.7393810864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1077972.5240436636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +734,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -843,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,7 +860,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -966,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>910342.46724595909</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>918917.67001080781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1019,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1122,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1145,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1245,6 +1259,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-134711.27213512734</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-159054.85403285583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671785344"/>
-        <c:axId val="671786880"/>
+        <c:axId val="653519488"/>
+        <c:axId val="653521280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671785344"/>
+        <c:axId val="653519488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +1330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671786880"/>
+        <c:crossAx val="653521280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671786880"/>
+        <c:axId val="653521280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671785344"/>
+        <c:crossAx val="653519488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1579,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1676,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,8 +1710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="672897664"/>
-        <c:axId val="672896128"/>
+        <c:axId val="653598720"/>
+        <c:axId val="653596544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1716,7 +1736,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1830,6 +1850,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,7 +1862,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1953,6 +1976,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.01785498046875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9370109863281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,11 +1995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672880128"/>
-        <c:axId val="672881664"/>
+        <c:axId val="653592832"/>
+        <c:axId val="653595008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="672880128"/>
+        <c:axId val="653592832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,14 +2042,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672881664"/>
+        <c:crossAx val="653595008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="672881664"/>
+        <c:axId val="653595008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,12 +2100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672880128"/>
+        <c:crossAx val="653592832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="672896128"/>
+        <c:axId val="653596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,12 +2142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672897664"/>
+        <c:crossAx val="653598720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="672897664"/>
+        <c:axId val="653598720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672896128"/>
+        <c:crossAx val="653596544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4265,8 +4291,43 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>45471</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2.9370109863281249</v>
+      </c>
+      <c r="C41" s="15">
+        <v>17.86000061</v>
+      </c>
+      <c r="D41" s="16">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E41" s="16">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F41" s="17">
+        <v>11208.260648603309</v>
+      </c>
+      <c r="G41" s="17">
+        <v>312326.26151560334</v>
+      </c>
+      <c r="H41" s="17">
+        <v>917305.66139011807</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1077972.5240436636</v>
+      </c>
+      <c r="J41" s="17">
+        <v>918917.67001080781</v>
+      </c>
+      <c r="K41" s="17">
+        <v>-159054.85403285583</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1612.0086206897299</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -566,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +582,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1077972.5240436636</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1110525.4918223296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +744,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -851,6 +861,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +873,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -977,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>918917.67001080781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>944982.70021932817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1035,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1136,6 +1152,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1164,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1262,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-159054.85403285583</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-165542.79160300142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,11 +1305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653519488"/>
-        <c:axId val="653521280"/>
+        <c:axId val="492094976"/>
+        <c:axId val="492096512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653519488"/>
+        <c:axId val="492094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,14 +1352,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653521280"/>
+        <c:crossAx val="492096512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653521280"/>
+        <c:axId val="492096512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1410,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653519488"/>
+        <c:crossAx val="492094976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1579,7 +1601,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,8 +1735,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="653598720"/>
-        <c:axId val="653596544"/>
+        <c:axId val="644239744"/>
+        <c:axId val="643762816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1736,7 +1761,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1853,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1890,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1979,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.9370109863281249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.916238037109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653592832"/>
-        <c:axId val="653595008"/>
+        <c:axId val="618872832"/>
+        <c:axId val="643760512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653592832"/>
+        <c:axId val="618872832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,14 +2073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653595008"/>
+        <c:crossAx val="643760512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653595008"/>
+        <c:axId val="643760512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,12 +2131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653592832"/>
+        <c:crossAx val="618872832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="653596544"/>
+        <c:axId val="643762816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,12 +2173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653598720"/>
+        <c:crossAx val="644239744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="653598720"/>
+        <c:axId val="644239744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653596544"/>
+        <c:crossAx val="643762816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2648,7 +2679,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2700,13 +2731,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2718,10 +2749,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4326,6 +4357,44 @@
         <v>-159054.85403285583</v>
       </c>
       <c r="L41" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>45504</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2.916238037109375</v>
+      </c>
+      <c r="C42" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D42" s="16">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E42" s="16">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F42" s="17">
+        <v>11162.657973878246</v>
+      </c>
+      <c r="G42" s="17">
+        <v>323488.9194894816</v>
+      </c>
+      <c r="H42" s="17">
+        <v>943370.69159863843</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1110525.4918223296</v>
+      </c>
+      <c r="J42" s="17">
+        <v>944982.70021932817</v>
+      </c>
+      <c r="K42" s="17">
+        <v>-165542.79160300142</v>
+      </c>
+      <c r="L42" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -573,6 +573,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +585,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -702,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1110525.4918223296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1130906.3694750303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +750,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -864,6 +870,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +882,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -993,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>944982.70021932817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>928784.76818896539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1047,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1155,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1179,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1284,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-165542.79160300142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-202121.60128606495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +1323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492094976"/>
-        <c:axId val="492096512"/>
+        <c:axId val="478212864"/>
+        <c:axId val="485605376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492094976"/>
+        <c:axId val="478212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,14 +1370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492096512"/>
+        <c:crossAx val="485605376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492096512"/>
+        <c:axId val="485605376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492094976"/>
+        <c:crossAx val="478212864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1601,7 +1619,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1721,6 +1739,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,8 +1756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="644239744"/>
-        <c:axId val="643762816"/>
+        <c:axId val="638954880"/>
+        <c:axId val="638952960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1761,7 +1782,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1881,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,7 +1914,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2010,6 +2034,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.916238037109375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8031621093750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618872832"/>
-        <c:axId val="643760512"/>
+        <c:axId val="638838656"/>
+        <c:axId val="638951424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618872832"/>
+        <c:axId val="638838656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643760512"/>
+        <c:crossAx val="638951424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643760512"/>
+        <c:axId val="638951424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618872832"/>
+        <c:crossAx val="638838656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643762816"/>
+        <c:axId val="638952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644239744"/>
+        <c:crossAx val="638954880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="644239744"/>
+        <c:axId val="638954880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="643762816"/>
+        <c:crossAx val="638952960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4398,6 +4425,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>45534</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2.8031621093750001</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20.56999969</v>
+      </c>
+      <c r="D43" s="16">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E43" s="16">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F43" s="17">
+        <v>7270.6739237585443</v>
+      </c>
+      <c r="G43" s="17">
+        <v>330759.59341324016</v>
+      </c>
+      <c r="H43" s="17">
+        <v>927172.75956827565</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1130906.3694750303</v>
+      </c>
+      <c r="J43" s="17">
+        <v>928784.76818896539</v>
+      </c>
+      <c r="K43" s="17">
+        <v>-202121.60128606495</v>
+      </c>
+      <c r="L43" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -576,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +584,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -708,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1130906.3694750303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1132359.5054731718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +752,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -873,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +887,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>928784.76818896539</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1178355.4850963762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1055,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1170,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1190,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,6 +1313,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-202121.60128606495</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45995.97962320433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478212864"/>
-        <c:axId val="485605376"/>
+        <c:axId val="497066752"/>
+        <c:axId val="497068672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478212864"/>
+        <c:axId val="497066752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,14 +1384,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485605376"/>
+        <c:crossAx val="497068672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485605376"/>
+        <c:axId val="497068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478212864"/>
+        <c:crossAx val="497066752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,7 +1633,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1742,6 +1756,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,8 +1773,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638954880"/>
-        <c:axId val="638952960"/>
+        <c:axId val="610274688"/>
+        <c:axId val="604134400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1782,7 +1799,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1905,6 +1922,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,7 +1934,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2037,6 +2057,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2.8031621093750001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5533068847656248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638838656"/>
-        <c:axId val="638951424"/>
+        <c:axId val="604128000"/>
+        <c:axId val="604132864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638838656"/>
+        <c:axId val="604128000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638951424"/>
+        <c:crossAx val="604132864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638951424"/>
+        <c:axId val="604132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638838656"/>
+        <c:crossAx val="604128000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638952960"/>
+        <c:axId val="604134400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638954880"/>
+        <c:crossAx val="610274688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638954880"/>
+        <c:axId val="610274688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638952960"/>
+        <c:crossAx val="604134400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2646,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2706,7 +2729,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2758,13 +2781,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2776,10 +2799,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4460,6 +4483,44 @@
         <v>-202121.60128606495</v>
       </c>
       <c r="L43" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.5533068847656248</v>
+      </c>
+      <c r="C44" s="15">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D44" s="16">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F44" s="17">
+        <v>408.95313725127875</v>
+      </c>
+      <c r="G44" s="17">
+        <v>331168.54655049142</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1176743.4764756865</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1132359.5054731718</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1178355.4850963762</v>
+      </c>
+      <c r="K44" s="17">
+        <v>45995.97962320433</v>
+      </c>
+      <c r="L44" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -575,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,7 +591,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -710,6 +717,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1132359.5054731718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1134969.7609595708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +762,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -878,6 +888,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +900,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1013,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1178355.4850963762</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1182135.8263263488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1071,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1181,6 +1197,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1209,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1316,6 +1335,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45995.97962320433</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47166.065366778057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,11 +1359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497066752"/>
-        <c:axId val="497068672"/>
+        <c:axId val="483666176"/>
+        <c:axId val="483668352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497066752"/>
+        <c:axId val="483666176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,14 +1406,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497068672"/>
+        <c:crossAx val="483668352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497068672"/>
+        <c:axId val="483668352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497066752"/>
+        <c:crossAx val="483666176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,7 +1655,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1759,6 +1781,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,8 +1798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610274688"/>
-        <c:axId val="604134400"/>
+        <c:axId val="485244288"/>
+        <c:axId val="485242368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1799,7 +1824,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1925,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,7 +1962,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2060,6 +2088,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3.5533068847656248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5568400878906248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="604128000"/>
-        <c:axId val="604132864"/>
+        <c:axId val="485230464"/>
+        <c:axId val="485232000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="604128000"/>
+        <c:axId val="485230464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,14 +2154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604132864"/>
+        <c:crossAx val="485232000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="604132864"/>
+        <c:axId val="485232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,12 +2212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604128000"/>
+        <c:crossAx val="485230464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="604134400"/>
+        <c:axId val="485242368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,12 +2254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610274688"/>
+        <c:crossAx val="485244288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610274688"/>
+        <c:axId val="485244288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604134400"/>
+        <c:crossAx val="485242368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2677,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2729,7 +2760,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2781,13 +2812,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2799,10 +2830,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4521,6 +4552,44 @@
         <v>45995.97962320433</v>
       </c>
       <c r="L44" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B45" s="15">
+        <v>3.5568400878906248</v>
+      </c>
+      <c r="C45" s="15">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D45" s="16">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E45" s="16">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F45" s="17">
+        <v>733.86922715070386</v>
+      </c>
+      <c r="G45" s="17">
+        <v>331902.41577764211</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1180523.8177056592</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1134969.7609595708</v>
+      </c>
+      <c r="J45" s="17">
+        <v>1182135.8263263488</v>
+      </c>
+      <c r="K45" s="17">
+        <v>47166.065366778057</v>
+      </c>
+      <c r="L45" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -582,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +590,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -720,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1134969.7609595708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138419.3748188333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,7 +764,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -891,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +905,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1029,6 +1034,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1182135.8263263488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1189800.2605363622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1079,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1200,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1220,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1338,6 +1349,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>47166.065366778057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51380.885717528872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,11 +1373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483666176"/>
-        <c:axId val="483668352"/>
+        <c:axId val="494928640"/>
+        <c:axId val="494933120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483666176"/>
+        <c:axId val="494928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1420,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483668352"/>
+        <c:crossAx val="494933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483668352"/>
+        <c:axId val="494933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483666176"/>
+        <c:crossAx val="494928640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,7 +1669,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1784,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,8 +1815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485244288"/>
-        <c:axId val="485242368"/>
+        <c:axId val="494955136"/>
+        <c:axId val="494953600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1824,7 +1841,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1953,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1982,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2091,6 +2111,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.5568400878906248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5695390625000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485230464"/>
-        <c:axId val="485232000"/>
+        <c:axId val="494949120"/>
+        <c:axId val="494951808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485230464"/>
+        <c:axId val="494949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,14 +2177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485232000"/>
+        <c:crossAx val="494951808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485232000"/>
+        <c:axId val="494951808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,12 +2235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485230464"/>
+        <c:crossAx val="494949120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485242368"/>
+        <c:axId val="494953600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,12 +2277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485244288"/>
+        <c:crossAx val="494955136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485244288"/>
+        <c:axId val="494955136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485242368"/>
+        <c:crossAx val="494953600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2700,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2760,7 +2783,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2812,13 +2835,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2830,10 +2853,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4590,6 +4613,44 @@
         <v>47166.065366778057</v>
       </c>
       <c r="L45" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="15">
+        <v>3.5695390625000001</v>
+      </c>
+      <c r="C46" s="15">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D46" s="16">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E46" s="16">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F46" s="17">
+        <v>966.40316826975618</v>
+      </c>
+      <c r="G46" s="17">
+        <v>332868.81894591189</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1188188.2519156726</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1138419.3748188333</v>
+      </c>
+      <c r="J46" s="17">
+        <v>1189800.2605363622</v>
+      </c>
+      <c r="K46" s="17">
+        <v>51380.885717528872</v>
+      </c>
+      <c r="L46" s="16">
         <v>1612.0086206897299</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -297,6 +301,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,7 +454,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -581,6 +586,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +598,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -722,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1138419.3748188333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1141497.8322438828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +775,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -896,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +919,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1189800.2605363622</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1206168.5218111875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1096,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1211,6 +1228,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,7 +1240,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,6 +1372,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>51380.885717528872</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64670.689567304682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,11 +1396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494928640"/>
-        <c:axId val="494933120"/>
+        <c:axId val="506399744"/>
+        <c:axId val="533791488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494928640"/>
+        <c:axId val="506399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,14 +1443,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494933120"/>
+        <c:crossAx val="533791488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494933120"/>
+        <c:axId val="533791488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494928640"/>
+        <c:crossAx val="506399744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1692,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1801,6 +1824,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,8 +1841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494955136"/>
-        <c:axId val="494953600"/>
+        <c:axId val="534338176"/>
+        <c:axId val="534336256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1841,7 +1867,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1973,6 +1999,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,7 +2011,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2114,6 +2143,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.5695390625000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6094641113281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,11 +2162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494949120"/>
-        <c:axId val="494951808"/>
+        <c:axId val="534325888"/>
+        <c:axId val="534334080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494949120"/>
+        <c:axId val="534325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494951808"/>
+        <c:crossAx val="534334080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494951808"/>
+        <c:axId val="534334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2267,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494949120"/>
+        <c:crossAx val="534325888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494953600"/>
+        <c:axId val="534336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2309,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494955136"/>
+        <c:crossAx val="534338176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494955136"/>
+        <c:axId val="534338176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494953600"/>
+        <c:crossAx val="534336256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2732,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2735,7 +2767,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2774,7 +2806,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2783,7 +2815,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2796,7 +2828,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2835,13 +2867,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2853,10 +2885,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -2879,8 +2911,18 @@
         <f>-AC3</f>
         <v>-79182.327064179699</v>
       </c>
+      <c r="AE3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>79182.327064179699</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-79182.327064179699</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2963,8 +3005,18 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
+      <c r="AE4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -3043,8 +3095,18 @@
         <f>-AC5</f>
         <v>-377214.16577039869</v>
       </c>
+      <c r="AE5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>377214.16577039869</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>-AF5</f>
+        <v>-377214.16577039869</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -3115,8 +3177,18 @@
       <c r="AD6" s="1">
         <v>721432.49808493454</v>
       </c>
+      <c r="AE6" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -3154,11 +3226,41 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="P7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1141497.8322438828</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1206168.5218111875</v>
+      </c>
+      <c r="T7" s="4">
+        <v>64670.689567304682</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1612.0086206897299</v>
+      </c>
+      <c r="V7" s="8">
+        <v>5.6654237739706619E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2.4763104269720726E-2</v>
+      </c>
       <c r="AD7" s="2">
         <v>-0.10105722686370289</v>
       </c>
+      <c r="AE7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1206168.5218111875</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -3196,8 +3298,11 @@
         <v>1612.0086206897299</v>
       </c>
       <c r="M8" s="6"/>
+      <c r="AG8" s="2">
+        <v>2.4763104269720726E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -3236,7 +3341,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3275,7 +3380,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3314,7 +3419,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3353,7 +3458,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3392,7 +3497,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3431,7 +3536,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3470,7 +3575,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4653,6 +4758,47 @@
       <c r="L46" s="16">
         <v>1612.0086206897299</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45657</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3.6094641113281249</v>
+      </c>
+      <c r="C47" s="15">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D47" s="16">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E47" s="16">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F47" s="17">
+        <v>852.88489651078305</v>
+      </c>
+      <c r="G47" s="17">
+        <v>333721.70384242269</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1204556.5131904979</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1141497.8322438828</v>
+      </c>
+      <c r="J47" s="17">
+        <v>1206168.5218111875</v>
+      </c>
+      <c r="K47" s="17">
+        <v>64670.689567304682</v>
+      </c>
+      <c r="L47" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,7 +297,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,19 +715,19 @@
                   <c:v>1110525.4918223296</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1130906.3694750303</c:v>
+                  <c:v>1130906.3694761263</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1132359.5054731718</c:v>
+                  <c:v>1132359.505475339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1134969.7609595708</c:v>
+                  <c:v>1134969.7609617379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1138419.3748188333</c:v>
+                  <c:v>1138419.3748210005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1141497.8322438828</c:v>
+                  <c:v>1141497.83224605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,19 +1036,19 @@
                   <c:v>944982.70021932817</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>928784.76818896539</c:v>
+                  <c:v>928784.76819006121</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1178355.4850963762</c:v>
+                  <c:v>1178355.4850988365</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1182135.8263263488</c:v>
+                  <c:v>1182135.8263288117</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1189800.2605363622</c:v>
+                  <c:v>1189800.2605388339</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1206168.5218111875</c:v>
+                  <c:v>1206168.5218136869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,19 +1357,19 @@
                   <c:v>-165542.79160300142</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-202121.60128606495</c:v>
+                  <c:v>-202121.60128606507</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45995.97962320433</c:v>
+                  <c:v>45995.979623497464</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>47166.065366778057</c:v>
+                  <c:v>47166.065367073752</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51380.885717528872</c:v>
+                  <c:v>51380.885717833415</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>64670.689567304682</c:v>
+                  <c:v>64670.689567636931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,11 +1391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506399744"/>
-        <c:axId val="533791488"/>
+        <c:axId val="508966016"/>
+        <c:axId val="517738880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506399744"/>
+        <c:axId val="508966016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,14 +1438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533791488"/>
+        <c:crossAx val="517738880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533791488"/>
+        <c:axId val="517738880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506399744"/>
+        <c:crossAx val="508966016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,10 +1809,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2610.2554863989344</c:v>
@@ -1841,8 +1836,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="534338176"/>
-        <c:axId val="534336256"/>
+        <c:axId val="529954688"/>
+        <c:axId val="529952768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2162,11 +2157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534325888"/>
-        <c:axId val="534334080"/>
+        <c:axId val="522221440"/>
+        <c:axId val="529937152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534325888"/>
+        <c:axId val="522221440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,14 +2204,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534334080"/>
+        <c:crossAx val="529937152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534334080"/>
+        <c:axId val="529937152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,12 +2262,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534325888"/>
+        <c:crossAx val="522221440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534336256"/>
+        <c:axId val="529952768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,12 +2304,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534338176"/>
+        <c:crossAx val="529954688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="534338176"/>
+        <c:axId val="529954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534336256"/>
+        <c:crossAx val="529952768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2732,7 +2727,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2815,7 +2810,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2867,13 +2862,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2885,10 +2880,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3230,22 +3225,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="9">
-        <v>283147.89461647021</v>
+        <v>283147.89461863739</v>
       </c>
       <c r="R7" s="4">
-        <v>1141497.8322438828</v>
+        <v>1141497.83224605</v>
       </c>
       <c r="S7" s="4">
-        <v>1206168.5218111875</v>
+        <v>1206168.5218136869</v>
       </c>
       <c r="T7" s="4">
-        <v>64670.689567304682</v>
+        <v>64670.689567636931</v>
       </c>
       <c r="U7" s="4">
         <v>1612.0086206897299</v>
       </c>
       <c r="V7" s="8">
-        <v>5.6654237739706619E-2</v>
+        <v>5.6654237739890125E-2</v>
       </c>
       <c r="W7" s="8">
         <v>2.4763104269720726E-2</v>
@@ -4618,28 +4613,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D43" s="16">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E43" s="16">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F43" s="17">
-        <v>7270.6739237585443</v>
+        <v>7270.6739241494934</v>
       </c>
       <c r="G43" s="17">
-        <v>330759.59341324016</v>
+        <v>330759.59341363108</v>
       </c>
       <c r="H43" s="17">
-        <v>927172.75956827565</v>
+        <v>927172.75956937147</v>
       </c>
       <c r="I43" s="17">
-        <v>1130906.3694750303</v>
+        <v>1130906.3694761263</v>
       </c>
       <c r="J43" s="17">
-        <v>928784.76818896539</v>
+        <v>928784.76819006121</v>
       </c>
       <c r="K43" s="17">
-        <v>-202121.60128606495</v>
+        <v>-202121.60128606507</v>
       </c>
       <c r="L43" s="16">
         <v>1612.0086206897299</v>
@@ -4656,28 +4651,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D44" s="16">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E44" s="16">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F44" s="17">
-        <v>408.95313725127875</v>
+        <v>408.95313755278721</v>
       </c>
       <c r="G44" s="17">
-        <v>331168.54655049142</v>
+        <v>331168.54655118386</v>
       </c>
       <c r="H44" s="17">
-        <v>1176743.4764756865</v>
+        <v>1176743.4764781469</v>
       </c>
       <c r="I44" s="17">
-        <v>1132359.5054731718</v>
+        <v>1132359.505475339</v>
       </c>
       <c r="J44" s="17">
-        <v>1178355.4850963762</v>
+        <v>1178355.4850988365</v>
       </c>
       <c r="K44" s="17">
-        <v>45995.97962320433</v>
+        <v>45995.979623497464</v>
       </c>
       <c r="L44" s="16">
         <v>1612.0086206897299</v>
@@ -4703,19 +4698,19 @@
         <v>733.86922715070386</v>
       </c>
       <c r="G45" s="17">
-        <v>331902.41577764211</v>
+        <v>331902.41577833454</v>
       </c>
       <c r="H45" s="17">
-        <v>1180523.8177056592</v>
+        <v>1180523.8177081221</v>
       </c>
       <c r="I45" s="17">
-        <v>1134969.7609595708</v>
+        <v>1134969.7609617379</v>
       </c>
       <c r="J45" s="17">
-        <v>1182135.8263263488</v>
+        <v>1182135.8263288117</v>
       </c>
       <c r="K45" s="17">
-        <v>47166.065366778057</v>
+        <v>47166.065367073752</v>
       </c>
       <c r="L45" s="16">
         <v>1612.0086206897299</v>
@@ -4741,19 +4736,19 @@
         <v>966.40316826975618</v>
       </c>
       <c r="G46" s="17">
-        <v>332868.81894591189</v>
+        <v>332868.81894660433</v>
       </c>
       <c r="H46" s="17">
-        <v>1188188.2519156726</v>
+        <v>1188188.2519181443</v>
       </c>
       <c r="I46" s="17">
-        <v>1138419.3748188333</v>
+        <v>1138419.3748210005</v>
       </c>
       <c r="J46" s="17">
-        <v>1189800.2605363622</v>
+        <v>1189800.2605388339</v>
       </c>
       <c r="K46" s="17">
-        <v>51380.885717528872</v>
+        <v>51380.885717833415</v>
       </c>
       <c r="L46" s="16">
         <v>1612.0086206897299</v>
@@ -4779,26 +4774,23 @@
         <v>852.88489651078305</v>
       </c>
       <c r="G47" s="17">
-        <v>333721.70384242269</v>
+        <v>333721.70384311513</v>
       </c>
       <c r="H47" s="17">
-        <v>1204556.5131904979</v>
+        <v>1204556.5131929973</v>
       </c>
       <c r="I47" s="17">
-        <v>1141497.8322438828</v>
+        <v>1141497.83224605</v>
       </c>
       <c r="J47" s="17">
-        <v>1206168.5218111875</v>
+        <v>1206168.5218136869</v>
       </c>
       <c r="K47" s="17">
-        <v>64670.689567304682</v>
+        <v>64670.689567636931</v>
       </c>
       <c r="L47" s="16">
         <v>1612.0086206897299</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -449,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -584,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +596,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -728,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1141497.83224605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +776,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -905,6 +911,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +923,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1049,6 +1058,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1206168.5218136869</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1192848.236503534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1103,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1226,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,7 +1250,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1370,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>64670.689567636931</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46846.23532125866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508966016"/>
-        <c:axId val="517738880"/>
+        <c:axId val="591792768"/>
+        <c:axId val="591902592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508966016"/>
+        <c:axId val="591792768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,14 +1456,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517738880"/>
+        <c:crossAx val="591902592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517738880"/>
+        <c:axId val="591902592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508966016"/>
+        <c:crossAx val="591792768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1705,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1822,6 +1840,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,8 +1857,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="529954688"/>
-        <c:axId val="529952768"/>
+        <c:axId val="593454208"/>
+        <c:axId val="593452032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1862,7 +1883,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1997,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2030,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2141,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.6094641113281249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5560529785156252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,11 +2184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522221440"/>
-        <c:axId val="529937152"/>
+        <c:axId val="593447168"/>
+        <c:axId val="593448960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522221440"/>
+        <c:axId val="593447168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,14 +2231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529937152"/>
+        <c:crossAx val="593448960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529937152"/>
+        <c:axId val="593448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,12 +2289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522221440"/>
+        <c:crossAx val="593447168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529952768"/>
+        <c:axId val="593452032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,12 +2331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529954688"/>
+        <c:crossAx val="593454208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="529954688"/>
+        <c:axId val="593454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529952768"/>
+        <c:crossAx val="593452032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4792,6 +4819,44 @@
         <v>1612.0086206897299</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B48" s="15">
+        <v>3.5560529785156252</v>
+      </c>
+      <c r="C48" s="15">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D48" s="16">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1266.6203128687698</v>
+      </c>
+      <c r="G48" s="17">
+        <v>334988.32415598392</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1191236.2278828444</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1192848.236503534</v>
+      </c>
+      <c r="K48" s="17">
+        <v>46846.23532125866</v>
+      </c>
+      <c r="L48" s="16">
+        <v>1612.0086206897299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -587,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +603,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -733,6 +740,9 @@
                   <c:v>1141497.83224605</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
@@ -776,7 +786,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -914,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +936,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1061,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1192848.236503534</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1270265.706614862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1119,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1241,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1269,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1388,6 +1407,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46846.23532125866</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>124263.7054325866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,11 +1431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591792768"/>
-        <c:axId val="591902592"/>
+        <c:axId val="544266880"/>
+        <c:axId val="544979200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591792768"/>
+        <c:axId val="544266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,14 +1478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591902592"/>
+        <c:crossAx val="544979200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591902592"/>
+        <c:axId val="544979200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591792768"/>
+        <c:crossAx val="544266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,7 +1727,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1843,6 +1865,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,8 +1882,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="593454208"/>
-        <c:axId val="593452032"/>
+        <c:axId val="668138112"/>
+        <c:axId val="668136192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1883,7 +1908,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2021,6 +2046,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2058,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2168,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3.5560529785156252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7871579589843751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593447168"/>
-        <c:axId val="593448960"/>
+        <c:axId val="649917952"/>
+        <c:axId val="668128384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593447168"/>
+        <c:axId val="649917952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593448960"/>
+        <c:crossAx val="668128384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593448960"/>
+        <c:axId val="668128384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593447168"/>
+        <c:crossAx val="649917952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593452032"/>
+        <c:axId val="668136192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593454208"/>
+        <c:crossAx val="668138112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="593454208"/>
+        <c:axId val="668138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593452032"/>
+        <c:crossAx val="668136192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2754,7 +2785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2837,7 +2868,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2889,13 +2920,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2907,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4855,6 +4886,44 @@
       </c>
       <c r="L48" s="16">
         <v>1612.0086206897299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>45716</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3.7871579589843751</v>
+      </c>
+      <c r="C49" s="15">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D49" s="16">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F49" s="17">
+        <v>-538.9109600094763</v>
+      </c>
+      <c r="G49" s="17">
+        <v>334449.41319597443</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1266612.7570627884</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J49" s="17">
+        <v>1270265.706614862</v>
+      </c>
+      <c r="K49" s="17">
+        <v>124263.7054325866</v>
+      </c>
+      <c r="L49" s="16">
+        <v>3652.9495520735286</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -594,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +602,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -743,6 +742,9 @@
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1146002.0011822754</c:v>
                 </c:pt>
               </c:numCache>
@@ -786,7 +788,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -927,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +941,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1077,6 +1082,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1270265.706614862</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1245897.03322071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1127,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1260,6 +1268,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1280,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1410,6 +1421,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>124263.7054325866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99895.032038434641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,11 +1445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544266880"/>
-        <c:axId val="544979200"/>
+        <c:axId val="708539520"/>
+        <c:axId val="708564864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544266880"/>
+        <c:axId val="708539520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,14 +1492,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544979200"/>
+        <c:crossAx val="708564864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544979200"/>
+        <c:axId val="708564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544266880"/>
+        <c:crossAx val="708539520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1727,7 +1741,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1868,6 +1882,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,8 +1899,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="668138112"/>
-        <c:axId val="668136192"/>
+        <c:axId val="759003008"/>
+        <c:axId val="754272128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1908,7 +1925,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2049,6 +2066,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2078,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2199,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.7871579589843751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7142958984374999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649917952"/>
-        <c:axId val="668128384"/>
+        <c:axId val="753769472"/>
+        <c:axId val="754022272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649917952"/>
+        <c:axId val="753769472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668128384"/>
+        <c:crossAx val="754022272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="668128384"/>
+        <c:axId val="754022272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2343,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649917952"/>
+        <c:crossAx val="753769472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="668136192"/>
+        <c:axId val="754272128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2385,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668138112"/>
+        <c:crossAx val="759003008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="668138112"/>
+        <c:axId val="759003008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="668136192"/>
+        <c:crossAx val="754272128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2808,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2868,7 +2891,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2920,13 +2943,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2938,10 +2961,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4924,6 +4947,44 @@
       </c>
       <c r="L49" s="16">
         <v>3652.9495520735286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>45747</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3.7142958984374999</v>
+      </c>
+      <c r="C50" s="15">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D50" s="16">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E50" s="16">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F50" s="17">
+        <v>-56.249920454663467</v>
+      </c>
+      <c r="G50" s="17">
+        <v>334393.16327551974</v>
+      </c>
+      <c r="H50" s="17">
+        <v>1242035.1548198042</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1146002.0011822754</v>
+      </c>
+      <c r="J50" s="17">
+        <v>1245897.03322071</v>
+      </c>
+      <c r="K50" s="17">
+        <v>99895.032038434641</v>
+      </c>
+      <c r="L50" s="16">
+        <v>3861.8784009057208</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -593,6 +597,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +609,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -746,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1146002.0011822754</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1152043.0757644563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +798,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -932,6 +942,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +954,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1085,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1245897.03322071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1175709.5288090131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1143,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1271,6 +1287,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1299,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1424,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99895.032038434641</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23666.45304455678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,11 +1467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708539520"/>
-        <c:axId val="708564864"/>
+        <c:axId val="441831808"/>
+        <c:axId val="441835520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708539520"/>
+        <c:axId val="441831808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,14 +1514,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708564864"/>
+        <c:crossAx val="441835520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708564864"/>
+        <c:axId val="441835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708539520"/>
+        <c:crossAx val="441831808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,7 +1763,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1885,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,8 +1924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="759003008"/>
-        <c:axId val="754272128"/>
+        <c:axId val="518973696"/>
+        <c:axId val="518972160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1925,7 +1950,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2069,6 +2094,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,7 +2106,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2222,6 +2250,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.7142958984374999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4863349609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,11 +2269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753769472"/>
-        <c:axId val="754022272"/>
+        <c:axId val="514648320"/>
+        <c:axId val="518006656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753769472"/>
+        <c:axId val="514648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,14 +2316,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="754022272"/>
+        <c:crossAx val="518006656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="754022272"/>
+        <c:axId val="518006656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,12 +2374,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753769472"/>
+        <c:crossAx val="514648320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="754272128"/>
+        <c:axId val="518972160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,12 +2416,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759003008"/>
+        <c:crossAx val="518973696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="759003008"/>
+        <c:axId val="518973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754272128"/>
+        <c:crossAx val="518972160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2808,7 +2839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2891,7 +2922,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2943,13 +2974,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2961,10 +2992,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4984,6 +5015,44 @@
         <v>99895.032038434641</v>
       </c>
       <c r="L50" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>45777</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3.4863349609375001</v>
+      </c>
+      <c r="C51" s="15">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D51" s="16">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E51" s="16">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1732.7866225901892</v>
+      </c>
+      <c r="G51" s="17">
+        <v>336125.94989810995</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1171847.6504081073</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1152043.0757644563</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1175709.5288090131</v>
+      </c>
+      <c r="K51" s="17">
+        <v>23666.45304455678</v>
+      </c>
+      <c r="L51" s="16">
         <v>3861.8784009057208</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -600,6 +596,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +608,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -756,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1152043.0757644563</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1160757.8317516064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +800,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -945,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +959,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1101,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1175709.5288090131</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1200142.9325498701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1151,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1290,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1310,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1446,6 +1457,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>23666.45304455678</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39385.10079826368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441831808"/>
-        <c:axId val="441835520"/>
+        <c:axId val="642816640"/>
+        <c:axId val="643631360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441831808"/>
+        <c:axId val="642816640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,14 +1528,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441835520"/>
+        <c:crossAx val="643631360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441835520"/>
+        <c:axId val="643631360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441831808"/>
+        <c:crossAx val="642816640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,7 +1777,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1910,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,8 +1941,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518973696"/>
-        <c:axId val="518972160"/>
+        <c:axId val="681520128"/>
+        <c:axId val="675851264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1950,7 +1967,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2097,6 +2114,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,7 +2126,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2253,6 +2273,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.4863349609375001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5330991210937501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514648320"/>
-        <c:axId val="518006656"/>
+        <c:axId val="671004160"/>
+        <c:axId val="675849728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514648320"/>
+        <c:axId val="671004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,14 +2339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518006656"/>
+        <c:crossAx val="675849728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518006656"/>
+        <c:axId val="675849728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,12 +2397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514648320"/>
+        <c:crossAx val="671004160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518972160"/>
+        <c:axId val="675851264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,12 +2439,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518973696"/>
+        <c:crossAx val="681520128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518973696"/>
+        <c:axId val="681520128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518972160"/>
+        <c:crossAx val="675851264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2922,7 +2945,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2974,13 +2997,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2992,10 +3015,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5053,6 +5076,44 @@
         <v>23666.45304455678</v>
       </c>
       <c r="L51" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>45807</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3.5330991210937501</v>
+      </c>
+      <c r="C52" s="15">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D52" s="16">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E52" s="16">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F52" s="17">
+        <v>2466.6038762174262</v>
+      </c>
+      <c r="G52" s="17">
+        <v>338592.55377432739</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1196281.0541489644</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1160757.8317516064</v>
+      </c>
+      <c r="J52" s="17">
+        <v>1200142.9325498701</v>
+      </c>
+      <c r="K52" s="17">
+        <v>39385.10079826368</v>
+      </c>
+      <c r="L52" s="16">
         <v>3861.8784009057208</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -599,6 +603,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +615,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -758,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1160757.8317516064</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1165377.5798944603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +810,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -950,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +972,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1109,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1200142.9325498701</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1244153.8241801611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,7 +1167,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1301,6 +1317,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1329,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1460,6 +1479,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>39385.10079826368</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78776.244285700843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,11 +1503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642816640"/>
-        <c:axId val="643631360"/>
+        <c:axId val="474850048"/>
+        <c:axId val="474851584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="642816640"/>
+        <c:axId val="474850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,14 +1550,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643631360"/>
+        <c:crossAx val="474851584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643631360"/>
+        <c:axId val="474851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642816640"/>
+        <c:crossAx val="474850048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,7 +1799,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1927,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,8 +1966,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="681520128"/>
-        <c:axId val="675851264"/>
+        <c:axId val="476205440"/>
+        <c:axId val="476202880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1967,7 +1992,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2117,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,7 +2154,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2276,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.5330991210937501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6494370117187498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671004160"/>
-        <c:axId val="675849728"/>
+        <c:axId val="476197248"/>
+        <c:axId val="476199936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671004160"/>
+        <c:axId val="476197248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675849728"/>
+        <c:crossAx val="476199936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675849728"/>
+        <c:axId val="476199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671004160"/>
+        <c:crossAx val="476197248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="675851264"/>
+        <c:axId val="476202880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681520128"/>
+        <c:crossAx val="476205440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="681520128"/>
+        <c:axId val="476205440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="675851264"/>
+        <c:crossAx val="476202880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2945,7 +2976,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2997,13 +3028,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3015,10 +3046,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5114,6 +5145,44 @@
         <v>39385.10079826368</v>
       </c>
       <c r="L52" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>45838</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3.6494370117187498</v>
+      </c>
+      <c r="C53" s="15">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D53" s="16">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E53" s="16">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1265.8796762403051</v>
+      </c>
+      <c r="G53" s="17">
+        <v>339858.43345056771</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1240291.9457792554</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1165377.5798944603</v>
+      </c>
+      <c r="J53" s="17">
+        <v>1244153.8241801611</v>
+      </c>
+      <c r="K53" s="17">
+        <v>78776.244285700843</v>
+      </c>
+      <c r="L53" s="16">
         <v>3861.8784009057208</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -606,6 +606,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +618,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -768,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1165377.5798944603</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +816,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -963,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +981,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1244153.8241801611</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1295723.2582638566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1179,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1320,6 +1332,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,7 +1344,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1482,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>78776.244285700843</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>129518.12067352491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,11 +1521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474850048"/>
-        <c:axId val="474851584"/>
+        <c:axId val="463803136"/>
+        <c:axId val="463805056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474850048"/>
+        <c:axId val="463803136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,14 +1568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474851584"/>
+        <c:crossAx val="463805056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474851584"/>
+        <c:axId val="463805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1626,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474850048"/>
+        <c:crossAx val="463803136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +1817,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1952,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,8 +1987,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476205440"/>
-        <c:axId val="476202880"/>
+        <c:axId val="464542720"/>
+        <c:axId val="464540416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1992,7 +2013,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2145,6 +2166,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2178,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2307,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3.6494370117187498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7987399902343748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476197248"/>
-        <c:axId val="476199936"/>
+        <c:axId val="463851520"/>
+        <c:axId val="463853056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476197248"/>
+        <c:axId val="463851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476199936"/>
+        <c:crossAx val="463853056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476199936"/>
+        <c:axId val="463853056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476197248"/>
+        <c:crossAx val="463851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476202880"/>
+        <c:axId val="464540416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2497,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476205440"/>
+        <c:crossAx val="464542720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476205440"/>
+        <c:axId val="464542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476202880"/>
+        <c:crossAx val="464540416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2920,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5186,6 +5213,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>45869</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3.7987399902343748</v>
+      </c>
+      <c r="C54" s="15">
+        <v>25.25</v>
+      </c>
+      <c r="D54" s="16">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E54" s="16">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F54" s="17">
+        <v>217.8505762433993</v>
+      </c>
+      <c r="G54" s="17">
+        <v>340076.28402681113</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1291861.3798629509</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J54" s="17">
+        <v>1295723.2582638566</v>
+      </c>
+      <c r="K54" s="17">
+        <v>129518.12067352491</v>
+      </c>
+      <c r="L54" s="16">
+        <v>3861.8784009057208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -609,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +621,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                   <c:v>1165377.5798944603</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -816,7 +822,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -972,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +990,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1295723.2582638566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1547109.2913399187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1191,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1335,6 +1347,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,7 +1359,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1500,6 +1515,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>129518.12067352491</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>380904.15374958701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463803136"/>
-        <c:axId val="463805056"/>
+        <c:axId val="424232064"/>
+        <c:axId val="424233984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463803136"/>
+        <c:axId val="424232064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,14 +1586,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463805056"/>
+        <c:crossAx val="424233984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463805056"/>
+        <c:axId val="424233984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463803136"/>
+        <c:crossAx val="424232064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1835,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1973,6 +1991,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-17883.962059553654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1987,8 +2008,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464542720"/>
-        <c:axId val="464540416"/>
+        <c:axId val="424268544"/>
+        <c:axId val="424266368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2013,7 +2034,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2169,6 +2190,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2202,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2334,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.7987399902343748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5379448242187497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463851520"/>
-        <c:axId val="463853056"/>
+        <c:axId val="424261120"/>
+        <c:axId val="424264064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463851520"/>
+        <c:axId val="424261120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,14 +2424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463853056"/>
+        <c:crossAx val="424264064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463853056"/>
+        <c:axId val="424264064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463851520"/>
+        <c:crossAx val="424261120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464540416"/>
+        <c:axId val="424266368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464542720"/>
+        <c:crossAx val="424268544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="464542720"/>
+        <c:axId val="424268544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464540416"/>
+        <c:crossAx val="424266368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,7 +2947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5251,6 +5278,44 @@
         <v>3861.8784009057208</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>45898</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4.5379448242187497</v>
+      </c>
+      <c r="C55" s="15">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D55" s="16">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E55" s="16">
+        <v>-17883.962059553654</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-3940.9827030306715</v>
+      </c>
+      <c r="G55" s="17">
+        <v>336135.30132378044</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1525363.4508794593</v>
+      </c>
+      <c r="I55" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1547109.2913399187</v>
+      </c>
+      <c r="K55" s="17">
+        <v>380904.15374958701</v>
+      </c>
+      <c r="L55" s="16">
+        <v>21745.840460459374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -612,6 +612,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +624,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +782,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -822,7 +828,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -981,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +999,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1149,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1547109.2913399187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1721951.8409119861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1203,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1350,6 +1362,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1374,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1518,6 +1533,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>380904.15374958701</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>555746.70332165435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,11 +1557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424232064"/>
-        <c:axId val="424233984"/>
+        <c:axId val="106830080"/>
+        <c:axId val="106837504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424232064"/>
+        <c:axId val="106830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,14 +1604,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424233984"/>
+        <c:crossAx val="106837504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424233984"/>
+        <c:axId val="106837504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424232064"/>
+        <c:crossAx val="106830080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,7 +1853,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1994,6 +2012,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-17883.962059553654</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-28655.058483172998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,8 +2029,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="424268544"/>
-        <c:axId val="424266368"/>
+        <c:axId val="270205696"/>
+        <c:axId val="106952960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2034,7 +2055,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2193,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,7 +2226,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2361,6 +2385,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.5379448242187497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0581000976562498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,11 +2404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424261120"/>
-        <c:axId val="424264064"/>
+        <c:axId val="106935808"/>
+        <c:axId val="106950656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424261120"/>
+        <c:axId val="106935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,14 +2451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424264064"/>
+        <c:crossAx val="106950656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424264064"/>
+        <c:axId val="106950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424261120"/>
+        <c:crossAx val="106935808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="424266368"/>
+        <c:axId val="106952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,12 +2551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424268544"/>
+        <c:crossAx val="270205696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="424268544"/>
+        <c:axId val="270205696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424266368"/>
+        <c:crossAx val="106952960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +2974,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5316,6 +5343,44 @@
         <v>21745.840460459374</v>
       </c>
     </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45930</v>
+      </c>
+      <c r="B56" s="15">
+        <v>5.0581000976562498</v>
+      </c>
+      <c r="C56" s="15">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D56" s="16">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-28655.058483172998</v>
+      </c>
+      <c r="F56" s="17">
+        <v>-5665.1821691806317</v>
+      </c>
+      <c r="G56" s="17">
+        <v>330470.11915459979</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1671550.9419683537</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J56" s="17">
+        <v>1721951.8409119861</v>
+      </c>
+      <c r="K56" s="17">
+        <v>555746.70332165435</v>
+      </c>
+      <c r="L56" s="16">
+        <v>50400.898943632375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -615,6 +611,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +623,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +784,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -828,7 +830,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -990,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1004,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1721951.8409119861</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1700551.1575365569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1211,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1365,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,7 +1385,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1536,6 +1547,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>555746.70332165435</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>534346.01994622522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,11 +1571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106830080"/>
-        <c:axId val="106837504"/>
+        <c:axId val="429049728"/>
+        <c:axId val="429053056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106830080"/>
+        <c:axId val="429049728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,14 +1618,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106837504"/>
+        <c:crossAx val="429053056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106837504"/>
+        <c:axId val="429053056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106830080"/>
+        <c:crossAx val="429049728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,7 +1867,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2015,6 +2029,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-28655.058483172998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-25555.095412625229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,8 +2046,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="270205696"/>
-        <c:axId val="106952960"/>
+        <c:axId val="463593856"/>
+        <c:axId val="429110016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2055,7 +2072,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2217,6 +2234,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2246,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2388,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5.0581000976562498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9933417968749998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106935808"/>
-        <c:axId val="106950656"/>
+        <c:axId val="429101824"/>
+        <c:axId val="429103744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106935808"/>
+        <c:axId val="429101824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,14 +2474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106950656"/>
+        <c:crossAx val="429103744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106950656"/>
+        <c:axId val="429103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106935808"/>
+        <c:crossAx val="429101824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106952960"/>
+        <c:axId val="429110016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270205696"/>
+        <c:crossAx val="463593856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="270205696"/>
+        <c:axId val="463593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106952960"/>
+        <c:crossAx val="429110016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +2997,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3057,7 +3080,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -3109,13 +3132,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3127,10 +3150,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5379,6 +5402,44 @@
       </c>
       <c r="L56" s="16">
         <v>50400.898943632375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>45961</v>
+      </c>
+      <c r="B57" s="15">
+        <v>4.9933417968749998</v>
+      </c>
+      <c r="C57" s="15">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D57" s="16">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E57" s="16">
+        <v>-25555.095412625229</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-5117.8341984557237</v>
+      </c>
+      <c r="G57" s="17">
+        <v>325352.28495614405</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1624595.1631802993</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1700551.1575365569</v>
+      </c>
+      <c r="K57" s="17">
+        <v>534346.01994622522</v>
+      </c>
+      <c r="L57" s="16">
+        <v>75955.994356257608</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel2cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -614,6 +618,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +630,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -787,6 +794,9 @@
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>1166205.1375903317</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1166205.1375903317</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,7 +840,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -995,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1017,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1169,6 +1182,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1700551.1575365569</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1645486.3953516721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1227,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1376,6 +1392,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1404,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1550,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>534346.01994622522</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>479281.25776134036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429049728"/>
-        <c:axId val="429053056"/>
+        <c:axId val="345168128"/>
+        <c:axId val="345170304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429049728"/>
+        <c:axId val="345168128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429053056"/>
+        <c:crossAx val="345170304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429053056"/>
+        <c:axId val="345170304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429049728"/>
+        <c:crossAx val="345168128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,7 +1889,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2032,6 +2054,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-25555.095412625229</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-15847.849901360847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,8 +2071,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463593856"/>
-        <c:axId val="429110016"/>
+        <c:axId val="353742208"/>
+        <c:axId val="353739520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2072,7 +2097,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2237,6 +2262,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,7 +2274,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2411,6 +2439,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.9933417968749998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8240952148437497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,11 +2458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429101824"/>
-        <c:axId val="429103744"/>
+        <c:axId val="353731712"/>
+        <c:axId val="353733632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429101824"/>
+        <c:axId val="353731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2505,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429103744"/>
+        <c:crossAx val="353733632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429103744"/>
+        <c:axId val="353733632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429101824"/>
+        <c:crossAx val="353731712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429110016"/>
+        <c:axId val="353739520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,12 +2605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463593856"/>
+        <c:crossAx val="353742208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="463593856"/>
+        <c:axId val="353742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429110016"/>
+        <c:crossAx val="353739520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3080,7 +3111,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -3132,13 +3163,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3150,10 +3181,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5440,6 +5471,44 @@
       </c>
       <c r="L57" s="16">
         <v>75955.994356257608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>45989</v>
+      </c>
+      <c r="B58" s="15">
+        <v>4.8240952148437497</v>
+      </c>
+      <c r="C58" s="15">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D58" s="16">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E58" s="16">
+        <v>-15847.849901360847</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-3285.1445080513718</v>
+      </c>
+      <c r="G58" s="17">
+        <v>322067.14044809266</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1553682.5510940535</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1166205.1375903317</v>
+      </c>
+      <c r="J58" s="17">
+        <v>1645486.3953516721</v>
+      </c>
+      <c r="K58" s="17">
+        <v>479281.25776134036</v>
+      </c>
+      <c r="L58" s="16">
+        <v>91803.844257618461</v>
       </c>
     </row>
   </sheetData>
